--- a/data/获取数据/政策导向指标/非国企20年数据/301357.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301357.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="160">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>北方长龙</t>
   </si>
   <si>
-    <t>301357</t>
-  </si>
-  <si>
     <t>2023-04-18</t>
   </si>
   <si>
@@ -458,6 +482,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>陈跃</t>
+  </si>
+  <si>
+    <t>宁波中铁长龙投资有限公司;横琴长龙咨询管理企业（有限合伙）;陈跃</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -815,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,16 +897,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301357</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>59.81</v>
@@ -903,5415 +966,5444 @@
         <v>71.56999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301357</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3">
+        <v>5100</v>
+      </c>
+      <c r="S3">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3">
+        <v>41.77714101766895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301357</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>60.79</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>59.42</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>61.8</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>57.29</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>70277</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>422970817</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>7.6</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>0.13</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>0.08</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>43.59</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301357</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>59.19</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>53.41</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>59.19</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>53.31</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>71268</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>398289240</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>9.9</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-10.11</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-6.01</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>44.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>53.41</v>
+      </c>
+      <c r="E6">
+        <v>53.82</v>
+      </c>
+      <c r="F6">
+        <v>56.89</v>
+      </c>
+      <c r="G6">
+        <v>53.09</v>
+      </c>
+      <c r="H6">
+        <v>57348</v>
+      </c>
+      <c r="I6">
+        <v>319744590</v>
+      </c>
+      <c r="J6">
+        <v>7.11</v>
+      </c>
+      <c r="K6">
+        <v>0.77</v>
+      </c>
+      <c r="L6">
+        <v>0.41</v>
+      </c>
+      <c r="M6">
+        <v>35.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>52.41</v>
+      </c>
+      <c r="E7">
+        <v>51.39</v>
+      </c>
+      <c r="F7">
+        <v>54.1</v>
+      </c>
+      <c r="G7">
+        <v>50.92</v>
+      </c>
+      <c r="H7">
+        <v>40054</v>
+      </c>
+      <c r="I7">
+        <v>212045240</v>
+      </c>
+      <c r="J7">
+        <v>5.91</v>
+      </c>
+      <c r="K7">
+        <v>-4.52</v>
+      </c>
+      <c r="L7">
+        <v>-2.43</v>
+      </c>
+      <c r="M7">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>51.31</v>
+      </c>
+      <c r="E8">
+        <v>49.02</v>
+      </c>
+      <c r="F8">
+        <v>52.66</v>
+      </c>
+      <c r="G8">
+        <v>48.61</v>
+      </c>
+      <c r="H8">
+        <v>36902</v>
+      </c>
+      <c r="I8">
+        <v>187739319</v>
+      </c>
+      <c r="J8">
+        <v>7.88</v>
+      </c>
+      <c r="K8">
+        <v>-4.61</v>
+      </c>
+      <c r="L8">
+        <v>-2.37</v>
+      </c>
+      <c r="M8">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301357</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>48.41</v>
+      </c>
+      <c r="E9">
+        <v>48.96</v>
+      </c>
+      <c r="F9">
+        <v>49.96</v>
+      </c>
+      <c r="G9">
+        <v>47.91</v>
+      </c>
+      <c r="H9">
+        <v>22521</v>
+      </c>
+      <c r="I9">
+        <v>112494148</v>
+      </c>
+      <c r="J9">
+        <v>4.18</v>
+      </c>
+      <c r="K9">
+        <v>-0.12</v>
+      </c>
+      <c r="L9">
+        <v>-0.06</v>
+      </c>
+      <c r="M9">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301357</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>47.4</v>
+      </c>
+      <c r="E10">
+        <v>47.91</v>
+      </c>
+      <c r="F10">
+        <v>50.32</v>
+      </c>
+      <c r="G10">
+        <v>47.4</v>
+      </c>
+      <c r="H10">
+        <v>25856</v>
+      </c>
+      <c r="I10">
+        <v>127671059</v>
+      </c>
+      <c r="J10">
+        <v>5.96</v>
+      </c>
+      <c r="K10">
+        <v>-2.14</v>
+      </c>
+      <c r="L10">
+        <v>-1.05</v>
+      </c>
+      <c r="M10">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301357</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>48.46</v>
+      </c>
+      <c r="E11">
+        <v>48.9</v>
+      </c>
+      <c r="F11">
+        <v>49.2</v>
+      </c>
+      <c r="G11">
+        <v>48.33</v>
+      </c>
+      <c r="H11">
+        <v>17021</v>
+      </c>
+      <c r="I11">
+        <v>84082024</v>
+      </c>
+      <c r="J11">
+        <v>1.82</v>
+      </c>
+      <c r="K11">
+        <v>2.07</v>
+      </c>
+      <c r="L11">
+        <v>0.99</v>
+      </c>
+      <c r="M11">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301357</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>49.01</v>
+      </c>
+      <c r="E12">
+        <v>48.78</v>
+      </c>
+      <c r="F12">
+        <v>50.16</v>
+      </c>
+      <c r="G12">
+        <v>48.53</v>
+      </c>
+      <c r="H12">
+        <v>18950</v>
+      </c>
+      <c r="I12">
+        <v>94530896</v>
+      </c>
+      <c r="J12">
+        <v>3.33</v>
+      </c>
+      <c r="K12">
+        <v>-0.25</v>
+      </c>
+      <c r="L12">
+        <v>-0.12</v>
+      </c>
+      <c r="M12">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301357</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>48.41</v>
+      </c>
+      <c r="E13">
+        <v>44.89</v>
+      </c>
+      <c r="F13">
+        <v>48.6</v>
+      </c>
+      <c r="G13">
+        <v>44.52</v>
+      </c>
+      <c r="H13">
+        <v>30211</v>
+      </c>
+      <c r="I13">
+        <v>139524024</v>
+      </c>
+      <c r="J13">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K13">
+        <v>-7.97</v>
+      </c>
+      <c r="L13">
+        <v>-3.89</v>
+      </c>
+      <c r="M13">
+        <v>18.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>44.51</v>
+      </c>
+      <c r="E14">
+        <v>47.22</v>
+      </c>
+      <c r="F14">
+        <v>47.96</v>
+      </c>
+      <c r="G14">
+        <v>44.51</v>
+      </c>
+      <c r="H14">
+        <v>29029</v>
+      </c>
+      <c r="I14">
+        <v>136796339</v>
+      </c>
+      <c r="J14">
+        <v>7.69</v>
+      </c>
+      <c r="K14">
+        <v>5.19</v>
+      </c>
+      <c r="L14">
+        <v>2.33</v>
+      </c>
+      <c r="M14">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>53.41</v>
-      </c>
-      <c r="E5">
-        <v>53.82</v>
-      </c>
-      <c r="F5">
-        <v>56.89</v>
-      </c>
-      <c r="G5">
-        <v>53.09</v>
-      </c>
-      <c r="H5">
-        <v>57348</v>
-      </c>
-      <c r="I5">
-        <v>319744590</v>
-      </c>
-      <c r="J5">
-        <v>7.11</v>
-      </c>
-      <c r="K5">
-        <v>0.77</v>
-      </c>
-      <c r="L5">
-        <v>0.41</v>
-      </c>
-      <c r="M5">
-        <v>35.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>52.41</v>
-      </c>
-      <c r="E6">
-        <v>51.39</v>
-      </c>
-      <c r="F6">
-        <v>54.1</v>
-      </c>
-      <c r="G6">
-        <v>50.92</v>
-      </c>
-      <c r="H6">
-        <v>40054</v>
-      </c>
-      <c r="I6">
-        <v>212045240</v>
-      </c>
-      <c r="J6">
-        <v>5.91</v>
-      </c>
-      <c r="K6">
-        <v>-4.52</v>
-      </c>
-      <c r="L6">
-        <v>-2.43</v>
-      </c>
-      <c r="M6">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>51.31</v>
-      </c>
-      <c r="E7">
-        <v>49.02</v>
-      </c>
-      <c r="F7">
-        <v>52.66</v>
-      </c>
-      <c r="G7">
-        <v>48.61</v>
-      </c>
-      <c r="H7">
-        <v>36902</v>
-      </c>
-      <c r="I7">
-        <v>187739319</v>
-      </c>
-      <c r="J7">
-        <v>7.88</v>
-      </c>
-      <c r="K7">
-        <v>-4.61</v>
-      </c>
-      <c r="L7">
-        <v>-2.37</v>
-      </c>
-      <c r="M7">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>48.41</v>
-      </c>
-      <c r="E8">
-        <v>48.96</v>
-      </c>
-      <c r="F8">
-        <v>49.96</v>
-      </c>
-      <c r="G8">
-        <v>47.91</v>
-      </c>
-      <c r="H8">
-        <v>22521</v>
-      </c>
-      <c r="I8">
-        <v>112494148</v>
-      </c>
-      <c r="J8">
-        <v>4.18</v>
-      </c>
-      <c r="K8">
-        <v>-0.12</v>
-      </c>
-      <c r="L8">
-        <v>-0.06</v>
-      </c>
-      <c r="M8">
-        <v>13.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>47.4</v>
-      </c>
-      <c r="E9">
-        <v>47.91</v>
-      </c>
-      <c r="F9">
-        <v>50.32</v>
-      </c>
-      <c r="G9">
-        <v>47.4</v>
-      </c>
-      <c r="H9">
-        <v>25856</v>
-      </c>
-      <c r="I9">
-        <v>127671059</v>
-      </c>
-      <c r="J9">
-        <v>5.96</v>
-      </c>
-      <c r="K9">
-        <v>-2.14</v>
-      </c>
-      <c r="L9">
-        <v>-1.05</v>
-      </c>
-      <c r="M9">
-        <v>16.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>48.46</v>
-      </c>
-      <c r="E10">
-        <v>48.9</v>
-      </c>
-      <c r="F10">
-        <v>49.2</v>
-      </c>
-      <c r="G10">
-        <v>48.33</v>
-      </c>
-      <c r="H10">
-        <v>17021</v>
-      </c>
-      <c r="I10">
-        <v>84082024</v>
-      </c>
-      <c r="J10">
-        <v>1.82</v>
-      </c>
-      <c r="K10">
-        <v>2.07</v>
-      </c>
-      <c r="L10">
-        <v>0.99</v>
-      </c>
-      <c r="M10">
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>49.01</v>
-      </c>
-      <c r="E11">
-        <v>48.78</v>
-      </c>
-      <c r="F11">
-        <v>50.16</v>
-      </c>
-      <c r="G11">
-        <v>48.53</v>
-      </c>
-      <c r="H11">
-        <v>18950</v>
-      </c>
-      <c r="I11">
-        <v>94530896</v>
-      </c>
-      <c r="J11">
-        <v>3.33</v>
-      </c>
-      <c r="K11">
-        <v>-0.25</v>
-      </c>
-      <c r="L11">
-        <v>-0.12</v>
-      </c>
-      <c r="M11">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>48.41</v>
-      </c>
-      <c r="E12">
-        <v>44.89</v>
-      </c>
-      <c r="F12">
-        <v>48.6</v>
-      </c>
-      <c r="G12">
-        <v>44.52</v>
-      </c>
-      <c r="H12">
-        <v>30211</v>
-      </c>
-      <c r="I12">
-        <v>139524024</v>
-      </c>
-      <c r="J12">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="K12">
-        <v>-7.97</v>
-      </c>
-      <c r="L12">
-        <v>-3.89</v>
-      </c>
-      <c r="M12">
-        <v>18.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>44.51</v>
-      </c>
-      <c r="E13">
-        <v>47.22</v>
-      </c>
-      <c r="F13">
-        <v>47.96</v>
-      </c>
-      <c r="G13">
-        <v>44.51</v>
-      </c>
-      <c r="H13">
-        <v>29029</v>
-      </c>
-      <c r="I13">
-        <v>136796339</v>
-      </c>
-      <c r="J13">
-        <v>7.69</v>
-      </c>
-      <c r="K13">
-        <v>5.19</v>
-      </c>
-      <c r="L13">
-        <v>2.33</v>
-      </c>
-      <c r="M13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>46.78</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>45.28</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>47.24</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>45.21</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>15486</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>72048475</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>4.3</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>-4.11</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-1.94</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>46.04</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>48.57</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>49.61</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>45.57</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>37040</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>178913966</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>8.92</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>7.27</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>3.29</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>22.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>47.96</v>
-      </c>
-      <c r="E16">
-        <v>46.45</v>
-      </c>
-      <c r="F16">
-        <v>48.16</v>
-      </c>
-      <c r="G16">
-        <v>46.29</v>
-      </c>
-      <c r="H16">
-        <v>26814</v>
-      </c>
-      <c r="I16">
-        <v>127226951</v>
-      </c>
-      <c r="J16">
-        <v>3.85</v>
-      </c>
-      <c r="K16">
-        <v>-4.36</v>
-      </c>
-      <c r="L16">
-        <v>-2.12</v>
-      </c>
-      <c r="M16">
-        <v>16.63</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301357</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>46.55</v>
+        <v>47.96</v>
       </c>
       <c r="E17">
-        <v>45.58</v>
+        <v>46.45</v>
       </c>
       <c r="F17">
-        <v>46.67</v>
+        <v>48.16</v>
       </c>
       <c r="G17">
-        <v>45.44</v>
+        <v>46.29</v>
       </c>
       <c r="H17">
-        <v>16655</v>
+        <v>26814</v>
       </c>
       <c r="I17">
-        <v>77165519</v>
+        <v>127226951</v>
       </c>
       <c r="J17">
-        <v>2.65</v>
+        <v>3.85</v>
       </c>
       <c r="K17">
-        <v>-1.87</v>
+        <v>-4.36</v>
       </c>
       <c r="L17">
-        <v>-0.87</v>
+        <v>-2.12</v>
       </c>
       <c r="M17">
-        <v>10.33</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>301357</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>45.41</v>
+        <v>46.55</v>
       </c>
       <c r="E18">
-        <v>46.77</v>
+        <v>45.58</v>
       </c>
       <c r="F18">
-        <v>46.97</v>
+        <v>46.67</v>
       </c>
       <c r="G18">
-        <v>45.26</v>
+        <v>45.44</v>
       </c>
       <c r="H18">
-        <v>16717</v>
+        <v>16655</v>
       </c>
       <c r="I18">
-        <v>78381659</v>
+        <v>77165519</v>
       </c>
       <c r="J18">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="K18">
-        <v>2.61</v>
+        <v>-1.87</v>
       </c>
       <c r="L18">
-        <v>1.19</v>
+        <v>-0.87</v>
       </c>
       <c r="M18">
-        <v>10.37</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>301357</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>46.7</v>
+        <v>45.41</v>
       </c>
       <c r="E19">
-        <v>47.7</v>
+        <v>46.77</v>
       </c>
       <c r="F19">
-        <v>48.5</v>
+        <v>46.97</v>
       </c>
       <c r="G19">
-        <v>45.97</v>
+        <v>45.26</v>
       </c>
       <c r="H19">
-        <v>25488</v>
+        <v>16717</v>
       </c>
       <c r="I19">
-        <v>122547690</v>
+        <v>78381659</v>
       </c>
       <c r="J19">
-        <v>5.41</v>
+        <v>3.75</v>
       </c>
       <c r="K19">
-        <v>1.99</v>
+        <v>2.61</v>
       </c>
       <c r="L19">
-        <v>0.93</v>
+        <v>1.19</v>
       </c>
       <c r="M19">
-        <v>15.81</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>301357</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>47.29</v>
+        <v>46.7</v>
       </c>
       <c r="E20">
-        <v>49.72</v>
+        <v>47.7</v>
       </c>
       <c r="F20">
-        <v>50.76</v>
+        <v>48.5</v>
       </c>
       <c r="G20">
-        <v>46.91</v>
+        <v>45.97</v>
       </c>
       <c r="H20">
-        <v>41696</v>
+        <v>25488</v>
       </c>
       <c r="I20">
-        <v>207917580</v>
+        <v>122547690</v>
       </c>
       <c r="J20">
-        <v>8.07</v>
+        <v>5.41</v>
       </c>
       <c r="K20">
-        <v>4.23</v>
+        <v>1.99</v>
       </c>
       <c r="L20">
-        <v>2.02</v>
+        <v>0.93</v>
       </c>
       <c r="M20">
-        <v>25.86</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>301357</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>48.62</v>
+        <v>47.29</v>
       </c>
       <c r="E21">
-        <v>49.02</v>
+        <v>49.72</v>
       </c>
       <c r="F21">
-        <v>49.86</v>
+        <v>50.76</v>
       </c>
       <c r="G21">
-        <v>48.52</v>
+        <v>46.91</v>
       </c>
       <c r="H21">
-        <v>28200</v>
+        <v>41696</v>
       </c>
       <c r="I21">
-        <v>139808388</v>
+        <v>207917580</v>
       </c>
       <c r="J21">
-        <v>2.7</v>
+        <v>8.07</v>
       </c>
       <c r="K21">
-        <v>-1.41</v>
+        <v>4.23</v>
       </c>
       <c r="L21">
-        <v>-0.7</v>
+        <v>2.02</v>
       </c>
       <c r="M21">
-        <v>17.49</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>301357</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>48.9</v>
+        <v>48.62</v>
       </c>
       <c r="E22">
-        <v>49.91</v>
+        <v>49.02</v>
       </c>
       <c r="F22">
-        <v>50.91</v>
+        <v>49.86</v>
       </c>
       <c r="G22">
-        <v>48.11</v>
+        <v>48.52</v>
       </c>
       <c r="H22">
-        <v>33782</v>
+        <v>28200</v>
       </c>
       <c r="I22">
-        <v>170374409</v>
+        <v>139808388</v>
       </c>
       <c r="J22">
-        <v>5.71</v>
+        <v>2.7</v>
       </c>
       <c r="K22">
-        <v>1.82</v>
+        <v>-1.41</v>
       </c>
       <c r="L22">
-        <v>0.89</v>
+        <v>-0.7</v>
       </c>
       <c r="M22">
-        <v>20.95</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>301357</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>49.42</v>
+        <v>48.9</v>
       </c>
       <c r="E23">
-        <v>50.93</v>
+        <v>49.91</v>
       </c>
       <c r="F23">
-        <v>51.78</v>
+        <v>50.91</v>
       </c>
       <c r="G23">
-        <v>49.24</v>
+        <v>48.11</v>
       </c>
       <c r="H23">
-        <v>35312</v>
+        <v>33782</v>
       </c>
       <c r="I23">
-        <v>181266992</v>
+        <v>170374409</v>
       </c>
       <c r="J23">
-        <v>5.09</v>
+        <v>5.71</v>
       </c>
       <c r="K23">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="L23">
-        <v>1.02</v>
+        <v>0.89</v>
       </c>
       <c r="M23">
-        <v>21.9</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>301357</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>50.65</v>
+        <v>49.42</v>
       </c>
       <c r="E24">
-        <v>52.41</v>
+        <v>50.93</v>
       </c>
       <c r="F24">
-        <v>53.91</v>
+        <v>51.78</v>
       </c>
       <c r="G24">
-        <v>49.46</v>
+        <v>49.24</v>
       </c>
       <c r="H24">
-        <v>50178</v>
+        <v>35312</v>
       </c>
       <c r="I24">
-        <v>261757241</v>
+        <v>181266992</v>
       </c>
       <c r="J24">
-        <v>8.74</v>
+        <v>5.09</v>
       </c>
       <c r="K24">
-        <v>2.91</v>
+        <v>2.04</v>
       </c>
       <c r="L24">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="M24">
-        <v>31.12</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>301357</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>50.91</v>
+        <v>50.65</v>
       </c>
       <c r="E25">
-        <v>50.61</v>
+        <v>52.41</v>
       </c>
       <c r="F25">
-        <v>51.69</v>
+        <v>53.91</v>
       </c>
       <c r="G25">
-        <v>50.42</v>
+        <v>49.46</v>
       </c>
       <c r="H25">
-        <v>33208</v>
+        <v>50178</v>
       </c>
       <c r="I25">
-        <v>171584111</v>
+        <v>261757241</v>
       </c>
       <c r="J25">
-        <v>2.42</v>
+        <v>8.74</v>
       </c>
       <c r="K25">
-        <v>-3.43</v>
+        <v>2.91</v>
       </c>
       <c r="L25">
-        <v>-1.8</v>
+        <v>1.48</v>
       </c>
       <c r="M25">
-        <v>20.6</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>301357</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>50.41</v>
+        <v>50.91</v>
       </c>
       <c r="E26">
-        <v>52.85</v>
+        <v>50.61</v>
       </c>
       <c r="F26">
-        <v>56.71</v>
+        <v>51.69</v>
       </c>
       <c r="G26">
-        <v>50.31</v>
+        <v>50.42</v>
       </c>
       <c r="H26">
-        <v>58396</v>
+        <v>33208</v>
       </c>
       <c r="I26">
-        <v>317127163</v>
+        <v>171584111</v>
       </c>
       <c r="J26">
-        <v>12.65</v>
+        <v>2.42</v>
       </c>
       <c r="K26">
-        <v>4.43</v>
+        <v>-3.43</v>
       </c>
       <c r="L26">
-        <v>2.24</v>
+        <v>-1.8</v>
       </c>
       <c r="M26">
-        <v>36.22</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>301357</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>51.82</v>
+        <v>50.41</v>
       </c>
       <c r="E27">
-        <v>49.85</v>
+        <v>52.85</v>
       </c>
       <c r="F27">
-        <v>52.5</v>
+        <v>56.71</v>
       </c>
       <c r="G27">
-        <v>49.21</v>
+        <v>50.31</v>
       </c>
       <c r="H27">
-        <v>42047</v>
+        <v>58396</v>
       </c>
       <c r="I27">
-        <v>213402635</v>
+        <v>317127163</v>
       </c>
       <c r="J27">
-        <v>6.23</v>
+        <v>12.65</v>
       </c>
       <c r="K27">
-        <v>-5.68</v>
+        <v>4.43</v>
       </c>
       <c r="L27">
-        <v>-3</v>
+        <v>2.24</v>
       </c>
       <c r="M27">
-        <v>26.08</v>
+        <v>36.22</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>301357</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>49.67</v>
+        <v>51.82</v>
       </c>
       <c r="E28">
-        <v>53.44</v>
+        <v>49.85</v>
       </c>
       <c r="F28">
-        <v>53.65</v>
+        <v>52.5</v>
       </c>
       <c r="G28">
-        <v>48.99</v>
+        <v>49.21</v>
       </c>
       <c r="H28">
-        <v>44709</v>
+        <v>42047</v>
       </c>
       <c r="I28">
-        <v>234431295</v>
+        <v>213402635</v>
       </c>
       <c r="J28">
-        <v>9.35</v>
+        <v>6.23</v>
       </c>
       <c r="K28">
-        <v>7.2</v>
+        <v>-5.68</v>
       </c>
       <c r="L28">
-        <v>3.59</v>
+        <v>-3</v>
       </c>
       <c r="M28">
-        <v>27.73</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>301357</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>52.41</v>
+        <v>49.67</v>
       </c>
       <c r="E29">
-        <v>51.33</v>
+        <v>53.44</v>
       </c>
       <c r="F29">
-        <v>53.26</v>
+        <v>53.65</v>
       </c>
       <c r="G29">
-        <v>51.06</v>
+        <v>48.99</v>
       </c>
       <c r="H29">
-        <v>28452</v>
+        <v>44709</v>
       </c>
       <c r="I29">
-        <v>149250495</v>
+        <v>234431295</v>
       </c>
       <c r="J29">
-        <v>4.12</v>
+        <v>9.35</v>
       </c>
       <c r="K29">
-        <v>-3.95</v>
+        <v>7.2</v>
       </c>
       <c r="L29">
-        <v>-2.11</v>
+        <v>3.59</v>
       </c>
       <c r="M29">
-        <v>17.65</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>301357</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>51.11</v>
+        <v>52.41</v>
       </c>
       <c r="E30">
-        <v>50.31</v>
+        <v>51.33</v>
       </c>
       <c r="F30">
-        <v>51.71</v>
+        <v>53.26</v>
       </c>
       <c r="G30">
-        <v>49.96</v>
+        <v>51.06</v>
       </c>
       <c r="H30">
-        <v>23574</v>
+        <v>28452</v>
       </c>
       <c r="I30">
-        <v>120923102</v>
+        <v>149250495</v>
       </c>
       <c r="J30">
-        <v>3.41</v>
+        <v>4.12</v>
       </c>
       <c r="K30">
-        <v>-1.99</v>
+        <v>-3.95</v>
       </c>
       <c r="L30">
-        <v>-1.02</v>
+        <v>-2.11</v>
       </c>
       <c r="M30">
-        <v>14.62</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>301357</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>49.93</v>
+        <v>51.11</v>
       </c>
       <c r="E31">
-        <v>50.45</v>
+        <v>50.31</v>
       </c>
       <c r="F31">
-        <v>50.97</v>
+        <v>51.71</v>
       </c>
       <c r="G31">
-        <v>49.81</v>
+        <v>49.96</v>
       </c>
       <c r="H31">
-        <v>18987</v>
+        <v>23574</v>
       </c>
       <c r="I31">
-        <v>96814115</v>
+        <v>120923102</v>
       </c>
       <c r="J31">
-        <v>2.31</v>
+        <v>3.41</v>
       </c>
       <c r="K31">
-        <v>0.28</v>
+        <v>-1.99</v>
       </c>
       <c r="L31">
-        <v>0.14</v>
+        <v>-1.02</v>
       </c>
       <c r="M31">
-        <v>11.78</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>301357</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>50.92</v>
+        <v>49.93</v>
       </c>
       <c r="E32">
-        <v>51.46</v>
+        <v>50.45</v>
       </c>
       <c r="F32">
-        <v>52.28</v>
+        <v>50.97</v>
       </c>
       <c r="G32">
-        <v>50.61</v>
+        <v>49.81</v>
       </c>
       <c r="H32">
-        <v>28794</v>
+        <v>18987</v>
       </c>
       <c r="I32">
-        <v>149938252</v>
+        <v>96814115</v>
       </c>
       <c r="J32">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>0.28</v>
       </c>
       <c r="L32">
-        <v>1.01</v>
+        <v>0.14</v>
       </c>
       <c r="M32">
-        <v>17.86</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>301357</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>51.1</v>
+        <v>50.92</v>
       </c>
       <c r="E33">
-        <v>50.39</v>
+        <v>51.46</v>
       </c>
       <c r="F33">
-        <v>51.89</v>
+        <v>52.28</v>
       </c>
       <c r="G33">
-        <v>50.3</v>
+        <v>50.61</v>
       </c>
       <c r="H33">
-        <v>20082</v>
+        <v>28794</v>
       </c>
       <c r="I33">
-        <v>102206487</v>
+        <v>149938252</v>
       </c>
       <c r="J33">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="K33">
-        <v>-2.08</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>-1.07</v>
+        <v>1.01</v>
       </c>
       <c r="M33">
-        <v>12.46</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>301357</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>50.6</v>
+        <v>51.1</v>
       </c>
       <c r="E34">
-        <v>49.6</v>
+        <v>50.39</v>
       </c>
       <c r="F34">
-        <v>51.38</v>
+        <v>51.89</v>
       </c>
       <c r="G34">
-        <v>49.48</v>
+        <v>50.3</v>
       </c>
       <c r="H34">
-        <v>20696</v>
+        <v>20082</v>
       </c>
       <c r="I34">
-        <v>104374273</v>
+        <v>102206487</v>
       </c>
       <c r="J34">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="K34">
-        <v>-1.57</v>
+        <v>-2.08</v>
       </c>
       <c r="L34">
-        <v>-0.79</v>
+        <v>-1.07</v>
       </c>
       <c r="M34">
-        <v>12.84</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>301357</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
+        <v>50.6</v>
+      </c>
+      <c r="E35">
+        <v>49.6</v>
+      </c>
+      <c r="F35">
+        <v>51.38</v>
+      </c>
+      <c r="G35">
         <v>49.48</v>
       </c>
-      <c r="E35">
-        <v>48.33</v>
-      </c>
-      <c r="F35">
-        <v>49.6</v>
-      </c>
-      <c r="G35">
-        <v>47.33</v>
-      </c>
       <c r="H35">
-        <v>20742</v>
+        <v>20696</v>
       </c>
       <c r="I35">
-        <v>99639370</v>
+        <v>104374273</v>
       </c>
       <c r="J35">
-        <v>4.58</v>
+        <v>3.77</v>
       </c>
       <c r="K35">
-        <v>-2.56</v>
+        <v>-1.57</v>
       </c>
       <c r="L35">
-        <v>-1.27</v>
+        <v>-0.79</v>
       </c>
       <c r="M35">
-        <v>12.86</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>301357</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>48.09</v>
+        <v>49.48</v>
       </c>
       <c r="E36">
-        <v>47.31</v>
+        <v>48.33</v>
       </c>
       <c r="F36">
-        <v>49.33</v>
+        <v>49.6</v>
       </c>
       <c r="G36">
-        <v>47.15</v>
+        <v>47.33</v>
       </c>
       <c r="H36">
-        <v>17234</v>
+        <v>20742</v>
       </c>
       <c r="I36">
-        <v>82948463</v>
+        <v>99639370</v>
       </c>
       <c r="J36">
-        <v>4.51</v>
+        <v>4.58</v>
       </c>
       <c r="K36">
-        <v>-2.11</v>
+        <v>-2.56</v>
       </c>
       <c r="L36">
-        <v>-1.02</v>
+        <v>-1.27</v>
       </c>
       <c r="M36">
-        <v>10.69</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>301357</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>47.8</v>
+        <v>48.09</v>
       </c>
       <c r="E37">
-        <v>48.22</v>
+        <v>47.31</v>
       </c>
       <c r="F37">
-        <v>48.79</v>
+        <v>49.33</v>
       </c>
       <c r="G37">
-        <v>47.55</v>
+        <v>47.15</v>
       </c>
       <c r="H37">
-        <v>12991</v>
+        <v>17234</v>
       </c>
       <c r="I37">
-        <v>62588458</v>
+        <v>82948463</v>
       </c>
       <c r="J37">
-        <v>2.62</v>
+        <v>4.51</v>
       </c>
       <c r="K37">
-        <v>1.92</v>
+        <v>-2.11</v>
       </c>
       <c r="L37">
-        <v>0.91</v>
+        <v>-1.02</v>
       </c>
       <c r="M37">
-        <v>8.06</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>301357</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>47.64</v>
+        <v>47.8</v>
       </c>
       <c r="E38">
-        <v>48.46</v>
+        <v>48.22</v>
       </c>
       <c r="F38">
-        <v>48.78</v>
+        <v>48.79</v>
       </c>
       <c r="G38">
-        <v>47.41</v>
+        <v>47.55</v>
       </c>
       <c r="H38">
-        <v>10673</v>
+        <v>12991</v>
       </c>
       <c r="I38">
-        <v>51403176</v>
+        <v>62588458</v>
       </c>
       <c r="J38">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>1.92</v>
       </c>
       <c r="L38">
-        <v>0.24</v>
+        <v>0.91</v>
       </c>
       <c r="M38">
-        <v>6.62</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>301357</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>48.75</v>
+        <v>47.64</v>
       </c>
       <c r="E39">
-        <v>49.29</v>
+        <v>48.46</v>
       </c>
       <c r="F39">
-        <v>49.36</v>
+        <v>48.78</v>
       </c>
       <c r="G39">
-        <v>48.01</v>
+        <v>47.41</v>
       </c>
       <c r="H39">
-        <v>16159</v>
+        <v>10673</v>
       </c>
       <c r="I39">
-        <v>78994268</v>
+        <v>51403176</v>
       </c>
       <c r="J39">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="K39">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
       <c r="M39">
-        <v>10.02</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>301357</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="E40">
-        <v>47.69</v>
+        <v>49.29</v>
       </c>
       <c r="F40">
-        <v>49.15</v>
+        <v>49.36</v>
       </c>
       <c r="G40">
-        <v>47.6</v>
+        <v>48.01</v>
       </c>
       <c r="H40">
-        <v>15212</v>
+        <v>16159</v>
       </c>
       <c r="I40">
-        <v>73411347</v>
+        <v>78994268</v>
       </c>
       <c r="J40">
-        <v>3.14</v>
+        <v>2.79</v>
       </c>
       <c r="K40">
-        <v>-3.25</v>
+        <v>1.71</v>
       </c>
       <c r="L40">
-        <v>-1.6</v>
+        <v>0.83</v>
       </c>
       <c r="M40">
-        <v>9.44</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>301357</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>47.4</v>
+        <v>49</v>
       </c>
       <c r="E41">
-        <v>47.72</v>
+        <v>47.69</v>
       </c>
       <c r="F41">
-        <v>48.31</v>
+        <v>49.15</v>
       </c>
       <c r="G41">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="H41">
-        <v>11864</v>
+        <v>15212</v>
       </c>
       <c r="I41">
-        <v>56698111</v>
+        <v>73411347</v>
       </c>
       <c r="J41">
-        <v>2.33</v>
+        <v>3.14</v>
       </c>
       <c r="K41">
-        <v>0.06</v>
+        <v>-3.25</v>
       </c>
       <c r="L41">
-        <v>0.03</v>
+        <v>-1.6</v>
       </c>
       <c r="M41">
-        <v>7.36</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>301357</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="E42">
-        <v>48.16</v>
+        <v>47.72</v>
       </c>
       <c r="F42">
-        <v>48.68</v>
+        <v>48.31</v>
       </c>
       <c r="G42">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="H42">
-        <v>12202</v>
+        <v>11864</v>
       </c>
       <c r="I42">
-        <v>58793112</v>
+        <v>56698111</v>
       </c>
       <c r="J42">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="K42">
-        <v>0.92</v>
+        <v>0.06</v>
       </c>
       <c r="L42">
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="M42">
-        <v>7.57</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>301357</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>48.03</v>
+        <v>47.7</v>
       </c>
       <c r="E43">
-        <v>49.09</v>
+        <v>48.16</v>
       </c>
       <c r="F43">
-        <v>49.3</v>
+        <v>48.68</v>
       </c>
       <c r="G43">
-        <v>47.82</v>
+        <v>47.5</v>
       </c>
       <c r="H43">
-        <v>15979</v>
+        <v>12202</v>
       </c>
       <c r="I43">
-        <v>78157410</v>
+        <v>58793112</v>
       </c>
       <c r="J43">
-        <v>3.07</v>
+        <v>2.47</v>
       </c>
       <c r="K43">
-        <v>1.93</v>
+        <v>0.92</v>
       </c>
       <c r="L43">
-        <v>0.93</v>
+        <v>0.44</v>
       </c>
       <c r="M43">
-        <v>9.91</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>301357</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>49.25</v>
+        <v>48.03</v>
       </c>
       <c r="E44">
-        <v>48.6</v>
+        <v>49.09</v>
       </c>
       <c r="F44">
-        <v>49.66</v>
+        <v>49.3</v>
       </c>
       <c r="G44">
-        <v>48.51</v>
+        <v>47.82</v>
       </c>
       <c r="H44">
-        <v>15248</v>
+        <v>15979</v>
       </c>
       <c r="I44">
-        <v>74694687</v>
+        <v>78157410</v>
       </c>
       <c r="J44">
-        <v>2.34</v>
+        <v>3.07</v>
       </c>
       <c r="K44">
-        <v>-1</v>
+        <v>1.93</v>
       </c>
       <c r="L44">
-        <v>-0.49</v>
+        <v>0.93</v>
       </c>
       <c r="M44">
-        <v>9.460000000000001</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>301357</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>48.42</v>
+        <v>49.25</v>
       </c>
       <c r="E45">
-        <v>47.41</v>
+        <v>48.6</v>
       </c>
       <c r="F45">
-        <v>49.11</v>
+        <v>49.66</v>
       </c>
       <c r="G45">
-        <v>47.32</v>
+        <v>48.51</v>
       </c>
       <c r="H45">
-        <v>12948</v>
+        <v>15248</v>
       </c>
       <c r="I45">
-        <v>62339587</v>
+        <v>74694687</v>
       </c>
       <c r="J45">
-        <v>3.68</v>
+        <v>2.34</v>
       </c>
       <c r="K45">
-        <v>-2.45</v>
+        <v>-1</v>
       </c>
       <c r="L45">
-        <v>-1.19</v>
+        <v>-0.49</v>
       </c>
       <c r="M45">
-        <v>8.029999999999999</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>301357</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>47.55</v>
+        <v>48.42</v>
       </c>
       <c r="E46">
-        <v>49.86</v>
+        <v>47.41</v>
       </c>
       <c r="F46">
-        <v>49.99</v>
+        <v>49.11</v>
       </c>
       <c r="G46">
-        <v>47.55</v>
+        <v>47.32</v>
       </c>
       <c r="H46">
-        <v>27757</v>
+        <v>12948</v>
       </c>
       <c r="I46">
-        <v>136138720</v>
+        <v>62339587</v>
       </c>
       <c r="J46">
-        <v>5.15</v>
+        <v>3.68</v>
       </c>
       <c r="K46">
-        <v>5.17</v>
+        <v>-2.45</v>
       </c>
       <c r="L46">
-        <v>2.45</v>
+        <v>-1.19</v>
       </c>
       <c r="M46">
-        <v>17.22</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>301357</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>49.88</v>
+        <v>47.55</v>
       </c>
       <c r="E47">
-        <v>51.18</v>
+        <v>49.86</v>
       </c>
       <c r="F47">
-        <v>53.34</v>
+        <v>49.99</v>
       </c>
       <c r="G47">
-        <v>49.01</v>
+        <v>47.55</v>
       </c>
       <c r="H47">
-        <v>39898</v>
+        <v>27757</v>
       </c>
       <c r="I47">
-        <v>204124728</v>
+        <v>136138720</v>
       </c>
       <c r="J47">
-        <v>8.68</v>
+        <v>5.15</v>
       </c>
       <c r="K47">
-        <v>2.65</v>
+        <v>5.17</v>
       </c>
       <c r="L47">
-        <v>1.32</v>
+        <v>2.45</v>
       </c>
       <c r="M47">
-        <v>24.75</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>301357</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>50.49</v>
+        <v>49.88</v>
       </c>
       <c r="E48">
-        <v>50.72</v>
+        <v>51.18</v>
       </c>
       <c r="F48">
-        <v>50.98</v>
+        <v>53.34</v>
       </c>
       <c r="G48">
-        <v>49.44</v>
+        <v>49.01</v>
       </c>
       <c r="H48">
-        <v>23673</v>
+        <v>39898</v>
       </c>
       <c r="I48">
-        <v>118523944</v>
+        <v>204124728</v>
       </c>
       <c r="J48">
-        <v>3.01</v>
+        <v>8.68</v>
       </c>
       <c r="K48">
-        <v>-0.9</v>
+        <v>2.65</v>
       </c>
       <c r="L48">
-        <v>-0.46</v>
+        <v>1.32</v>
       </c>
       <c r="M48">
-        <v>14.68</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>301357</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>50.17</v>
+        <v>50.49</v>
       </c>
       <c r="E49">
-        <v>50.39</v>
+        <v>50.72</v>
       </c>
       <c r="F49">
-        <v>51.5</v>
+        <v>50.98</v>
       </c>
       <c r="G49">
-        <v>49.9</v>
+        <v>49.44</v>
       </c>
       <c r="H49">
-        <v>20090</v>
+        <v>23673</v>
       </c>
       <c r="I49">
-        <v>101617006</v>
+        <v>118523944</v>
       </c>
       <c r="J49">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="K49">
-        <v>-0.65</v>
+        <v>-0.9</v>
       </c>
       <c r="L49">
-        <v>-0.33</v>
+        <v>-0.46</v>
       </c>
       <c r="M49">
-        <v>12.46</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>301357</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>50.22</v>
+        <v>50.17</v>
       </c>
       <c r="E50">
-        <v>52.08</v>
+        <v>50.39</v>
       </c>
       <c r="F50">
-        <v>52.38</v>
+        <v>51.5</v>
       </c>
       <c r="G50">
-        <v>50.02</v>
+        <v>49.9</v>
       </c>
       <c r="H50">
-        <v>27651</v>
+        <v>20090</v>
       </c>
       <c r="I50">
-        <v>142452273</v>
+        <v>101617006</v>
       </c>
       <c r="J50">
-        <v>4.68</v>
+        <v>3.15</v>
       </c>
       <c r="K50">
-        <v>3.35</v>
+        <v>-0.65</v>
       </c>
       <c r="L50">
-        <v>1.69</v>
+        <v>-0.33</v>
       </c>
       <c r="M50">
-        <v>17.15</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>301357</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>51.69</v>
+        <v>50.22</v>
       </c>
       <c r="E51">
-        <v>51.56</v>
+        <v>52.08</v>
       </c>
       <c r="F51">
-        <v>52.65</v>
+        <v>52.38</v>
       </c>
       <c r="G51">
-        <v>51.41</v>
+        <v>50.02</v>
       </c>
       <c r="H51">
-        <v>21471</v>
+        <v>27651</v>
       </c>
       <c r="I51">
-        <v>111408297</v>
+        <v>142452273</v>
       </c>
       <c r="J51">
-        <v>2.38</v>
+        <v>4.68</v>
       </c>
       <c r="K51">
-        <v>-1</v>
+        <v>3.35</v>
       </c>
       <c r="L51">
-        <v>-0.52</v>
+        <v>1.69</v>
       </c>
       <c r="M51">
-        <v>13.32</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>301357</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
+        <v>51.69</v>
+      </c>
+      <c r="E52">
+        <v>51.56</v>
+      </c>
+      <c r="F52">
+        <v>52.65</v>
+      </c>
+      <c r="G52">
         <v>51.41</v>
       </c>
-      <c r="E52">
-        <v>51.75</v>
-      </c>
-      <c r="F52">
-        <v>52.15</v>
-      </c>
-      <c r="G52">
-        <v>51.1</v>
-      </c>
       <c r="H52">
-        <v>17857</v>
+        <v>21471</v>
       </c>
       <c r="I52">
-        <v>92164850</v>
+        <v>111408297</v>
       </c>
       <c r="J52">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="K52">
-        <v>0.37</v>
+        <v>-1</v>
       </c>
       <c r="L52">
-        <v>0.19</v>
+        <v>-0.52</v>
       </c>
       <c r="M52">
-        <v>11.08</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>301357</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>51.49</v>
+        <v>51.41</v>
       </c>
       <c r="E53">
-        <v>49.9</v>
+        <v>51.75</v>
       </c>
       <c r="F53">
-        <v>51.9</v>
+        <v>52.15</v>
       </c>
       <c r="G53">
-        <v>49.85</v>
+        <v>51.1</v>
       </c>
       <c r="H53">
-        <v>21066</v>
+        <v>17857</v>
       </c>
       <c r="I53">
-        <v>107009687</v>
+        <v>92164850</v>
       </c>
       <c r="J53">
-        <v>3.96</v>
+        <v>2.04</v>
       </c>
       <c r="K53">
-        <v>-3.57</v>
+        <v>0.37</v>
       </c>
       <c r="L53">
-        <v>-1.85</v>
+        <v>0.19</v>
       </c>
       <c r="M53">
-        <v>13.07</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>301357</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>50.05</v>
+        <v>51.49</v>
       </c>
       <c r="E54">
-        <v>54.9</v>
+        <v>49.9</v>
       </c>
       <c r="F54">
-        <v>56.8</v>
+        <v>51.9</v>
       </c>
       <c r="G54">
-        <v>49.86</v>
+        <v>49.85</v>
       </c>
       <c r="H54">
-        <v>58096</v>
+        <v>21066</v>
       </c>
       <c r="I54">
-        <v>312578235</v>
+        <v>107009687</v>
       </c>
       <c r="J54">
-        <v>13.91</v>
+        <v>3.96</v>
       </c>
       <c r="K54">
-        <v>10.02</v>
+        <v>-3.57</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>-1.85</v>
       </c>
       <c r="M54">
-        <v>36.03</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>301357</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>50.05</v>
       </c>
       <c r="E55">
-        <v>53.85</v>
+        <v>54.9</v>
       </c>
       <c r="F55">
-        <v>55.87</v>
+        <v>56.8</v>
       </c>
       <c r="G55">
-        <v>53.67</v>
+        <v>49.86</v>
       </c>
       <c r="H55">
-        <v>40051</v>
+        <v>58096</v>
       </c>
       <c r="I55">
-        <v>218621445</v>
+        <v>312578235</v>
       </c>
       <c r="J55">
-        <v>4.01</v>
+        <v>13.91</v>
       </c>
       <c r="K55">
-        <v>-1.91</v>
+        <v>10.02</v>
       </c>
       <c r="L55">
-        <v>-1.05</v>
+        <v>5</v>
       </c>
       <c r="M55">
-        <v>24.84</v>
+        <v>36.03</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>301357</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>53.59</v>
+        <v>54</v>
       </c>
       <c r="E56">
-        <v>52.95</v>
+        <v>53.85</v>
       </c>
       <c r="F56">
-        <v>54.49</v>
+        <v>55.87</v>
       </c>
       <c r="G56">
-        <v>52.38</v>
+        <v>53.67</v>
       </c>
       <c r="H56">
-        <v>24963</v>
+        <v>40051</v>
       </c>
       <c r="I56">
-        <v>132889009</v>
+        <v>218621445</v>
       </c>
       <c r="J56">
-        <v>3.92</v>
+        <v>4.01</v>
       </c>
       <c r="K56">
-        <v>-1.67</v>
+        <v>-1.91</v>
       </c>
       <c r="L56">
-        <v>-0.9</v>
+        <v>-1.05</v>
       </c>
       <c r="M56">
-        <v>15.48</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>301357</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>53.15</v>
+        <v>53.59</v>
       </c>
       <c r="E57">
-        <v>53.71</v>
+        <v>52.95</v>
       </c>
       <c r="F57">
-        <v>54.97</v>
+        <v>54.49</v>
       </c>
       <c r="G57">
-        <v>52.88</v>
+        <v>52.38</v>
       </c>
       <c r="H57">
-        <v>25668</v>
+        <v>24963</v>
       </c>
       <c r="I57">
-        <v>137682598</v>
+        <v>132889009</v>
       </c>
       <c r="J57">
-        <v>3.95</v>
+        <v>3.92</v>
       </c>
       <c r="K57">
-        <v>1.44</v>
+        <v>-1.67</v>
       </c>
       <c r="L57">
-        <v>0.76</v>
+        <v>-0.9</v>
       </c>
       <c r="M57">
-        <v>15.92</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>301357</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>53.02</v>
+        <v>53.15</v>
       </c>
       <c r="E58">
-        <v>56.09</v>
+        <v>53.71</v>
       </c>
       <c r="F58">
-        <v>56.6</v>
+        <v>54.97</v>
       </c>
       <c r="G58">
-        <v>52.44</v>
+        <v>52.88</v>
       </c>
       <c r="H58">
-        <v>45401</v>
+        <v>25668</v>
       </c>
       <c r="I58">
-        <v>249559751</v>
+        <v>137682598</v>
       </c>
       <c r="J58">
-        <v>7.75</v>
+        <v>3.95</v>
       </c>
       <c r="K58">
-        <v>4.43</v>
+        <v>1.44</v>
       </c>
       <c r="L58">
-        <v>2.38</v>
+        <v>0.76</v>
       </c>
       <c r="M58">
-        <v>28.16</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>301357</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>55.3</v>
+        <v>53.02</v>
       </c>
       <c r="E59">
-        <v>58.25</v>
+        <v>56.09</v>
       </c>
       <c r="F59">
-        <v>59.65</v>
+        <v>56.6</v>
       </c>
       <c r="G59">
-        <v>55.01</v>
+        <v>52.44</v>
       </c>
       <c r="H59">
-        <v>49493</v>
+        <v>45401</v>
       </c>
       <c r="I59">
-        <v>285070327</v>
+        <v>249559751</v>
       </c>
       <c r="J59">
-        <v>8.27</v>
+        <v>7.75</v>
       </c>
       <c r="K59">
-        <v>3.85</v>
+        <v>4.43</v>
       </c>
       <c r="L59">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="M59">
-        <v>30.7</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>301357</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>57.08</v>
+        <v>55.3</v>
       </c>
       <c r="E60">
-        <v>58.62</v>
+        <v>58.25</v>
       </c>
       <c r="F60">
-        <v>61.38</v>
+        <v>59.65</v>
       </c>
       <c r="G60">
-        <v>56</v>
+        <v>55.01</v>
       </c>
       <c r="H60">
-        <v>51708</v>
+        <v>49493</v>
       </c>
       <c r="I60">
-        <v>304710930</v>
+        <v>285070327</v>
       </c>
       <c r="J60">
-        <v>9.24</v>
+        <v>8.27</v>
       </c>
       <c r="K60">
-        <v>0.64</v>
+        <v>3.85</v>
       </c>
       <c r="L60">
-        <v>0.37</v>
+        <v>2.16</v>
       </c>
       <c r="M60">
-        <v>32.07</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>301357</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>58.06</v>
+        <v>57.08</v>
       </c>
       <c r="E61">
-        <v>55.72</v>
+        <v>58.62</v>
       </c>
       <c r="F61">
-        <v>58.58</v>
+        <v>61.38</v>
       </c>
       <c r="G61">
-        <v>54.72</v>
+        <v>56</v>
       </c>
       <c r="H61">
-        <v>37678</v>
+        <v>51708</v>
       </c>
       <c r="I61">
-        <v>211100236</v>
+        <v>304710930</v>
       </c>
       <c r="J61">
-        <v>6.58</v>
+        <v>9.24</v>
       </c>
       <c r="K61">
-        <v>-4.95</v>
+        <v>0.64</v>
       </c>
       <c r="L61">
-        <v>-2.9</v>
+        <v>0.37</v>
       </c>
       <c r="M61">
-        <v>23.37</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>301357</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>55.25</v>
+        <v>58.06</v>
       </c>
       <c r="E62">
-        <v>53.39</v>
+        <v>55.72</v>
       </c>
       <c r="F62">
-        <v>55.66</v>
+        <v>58.58</v>
       </c>
       <c r="G62">
-        <v>53.03</v>
+        <v>54.72</v>
       </c>
       <c r="H62">
-        <v>27362</v>
+        <v>37678</v>
       </c>
       <c r="I62">
-        <v>147567659</v>
+        <v>211100236</v>
       </c>
       <c r="J62">
-        <v>4.72</v>
+        <v>6.58</v>
       </c>
       <c r="K62">
-        <v>-4.18</v>
+        <v>-4.95</v>
       </c>
       <c r="L62">
-        <v>-2.33</v>
+        <v>-2.9</v>
       </c>
       <c r="M62">
-        <v>16.97</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>301357</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>53.17</v>
+        <v>55.25</v>
       </c>
       <c r="E63">
-        <v>53.95</v>
+        <v>53.39</v>
       </c>
       <c r="F63">
-        <v>53.95</v>
+        <v>55.66</v>
       </c>
       <c r="G63">
-        <v>52.82</v>
+        <v>53.03</v>
       </c>
       <c r="H63">
-        <v>20963</v>
+        <v>27362</v>
       </c>
       <c r="I63">
-        <v>112179110</v>
+        <v>147567659</v>
       </c>
       <c r="J63">
-        <v>2.12</v>
+        <v>4.72</v>
       </c>
       <c r="K63">
-        <v>1.05</v>
+        <v>-4.18</v>
       </c>
       <c r="L63">
-        <v>0.5600000000000001</v>
+        <v>-2.33</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>301357</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64">
+        <v>53.17</v>
+      </c>
+      <c r="E64">
+        <v>53.95</v>
+      </c>
+      <c r="F64">
+        <v>53.95</v>
+      </c>
+      <c r="G64">
+        <v>52.82</v>
+      </c>
+      <c r="H64">
+        <v>20963</v>
+      </c>
+      <c r="I64">
+        <v>112179110</v>
+      </c>
+      <c r="J64">
+        <v>2.12</v>
+      </c>
+      <c r="K64">
+        <v>1.05</v>
+      </c>
+      <c r="L64">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M64">
         <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64">
-        <v>53.96</v>
-      </c>
-      <c r="E64">
-        <v>55.55</v>
-      </c>
-      <c r="F64">
-        <v>57.79</v>
-      </c>
-      <c r="G64">
-        <v>53.21</v>
-      </c>
-      <c r="H64">
-        <v>35981</v>
-      </c>
-      <c r="I64">
-        <v>200357359</v>
-      </c>
-      <c r="J64">
-        <v>8.49</v>
-      </c>
-      <c r="K64">
-        <v>2.97</v>
-      </c>
-      <c r="L64">
-        <v>1.6</v>
-      </c>
-      <c r="M64">
-        <v>22.32</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>301357</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>54.85</v>
+        <v>53.96</v>
       </c>
       <c r="E65">
-        <v>51.4</v>
+        <v>55.55</v>
       </c>
       <c r="F65">
-        <v>56.85</v>
+        <v>57.79</v>
       </c>
       <c r="G65">
-        <v>51.33</v>
+        <v>53.21</v>
       </c>
       <c r="H65">
-        <v>34091</v>
+        <v>35981</v>
       </c>
       <c r="I65">
-        <v>182769359</v>
+        <v>200357359</v>
       </c>
       <c r="J65">
-        <v>9.94</v>
+        <v>8.49</v>
       </c>
       <c r="K65">
-        <v>-7.47</v>
+        <v>2.97</v>
       </c>
       <c r="L65">
-        <v>-4.15</v>
+        <v>1.6</v>
       </c>
       <c r="M65">
-        <v>21.14</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>301357</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>50.61</v>
+        <v>54.85</v>
       </c>
       <c r="E66">
-        <v>49.49</v>
+        <v>51.4</v>
       </c>
       <c r="F66">
-        <v>50.8</v>
+        <v>56.85</v>
       </c>
       <c r="G66">
-        <v>49.13</v>
+        <v>51.33</v>
       </c>
       <c r="H66">
-        <v>18976</v>
+        <v>34091</v>
       </c>
       <c r="I66">
-        <v>94579013</v>
+        <v>182769359</v>
       </c>
       <c r="J66">
-        <v>3.25</v>
+        <v>9.94</v>
       </c>
       <c r="K66">
-        <v>-3.72</v>
+        <v>-7.47</v>
       </c>
       <c r="L66">
-        <v>-1.91</v>
+        <v>-4.15</v>
       </c>
       <c r="M66">
-        <v>11.77</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>301357</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>50</v>
+        <v>50.61</v>
       </c>
       <c r="E67">
-        <v>51.95</v>
+        <v>49.49</v>
       </c>
       <c r="F67">
-        <v>53.76</v>
+        <v>50.8</v>
       </c>
       <c r="G67">
-        <v>49.8</v>
+        <v>49.13</v>
       </c>
       <c r="H67">
-        <v>23811</v>
+        <v>18976</v>
       </c>
       <c r="I67">
-        <v>123347475</v>
+        <v>94579013</v>
       </c>
       <c r="J67">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="K67">
-        <v>4.97</v>
+        <v>-3.72</v>
       </c>
       <c r="L67">
-        <v>2.46</v>
+        <v>-1.91</v>
       </c>
       <c r="M67">
-        <v>14.77</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>301357</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
-        <v>51.78</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>51.16</v>
+        <v>51.95</v>
       </c>
       <c r="F68">
-        <v>52.88</v>
+        <v>53.76</v>
       </c>
       <c r="G68">
-        <v>51</v>
+        <v>49.8</v>
       </c>
       <c r="H68">
-        <v>13883</v>
+        <v>23811</v>
       </c>
       <c r="I68">
-        <v>71810181</v>
+        <v>123347475</v>
       </c>
       <c r="J68">
-        <v>3.62</v>
+        <v>8</v>
       </c>
       <c r="K68">
-        <v>-1.52</v>
+        <v>4.97</v>
       </c>
       <c r="L68">
-        <v>-0.79</v>
+        <v>2.46</v>
       </c>
       <c r="M68">
-        <v>8.609999999999999</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>301357</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>51.35</v>
+        <v>51.78</v>
       </c>
       <c r="E69">
-        <v>61.39</v>
+        <v>51.16</v>
       </c>
       <c r="F69">
-        <v>61.39</v>
+        <v>52.88</v>
       </c>
       <c r="G69">
-        <v>51.35</v>
+        <v>51</v>
       </c>
       <c r="H69">
-        <v>60375</v>
+        <v>13883</v>
       </c>
       <c r="I69">
-        <v>349526936</v>
+        <v>71810181</v>
       </c>
       <c r="J69">
-        <v>19.62</v>
+        <v>3.62</v>
       </c>
       <c r="K69">
-        <v>20</v>
+        <v>-1.52</v>
       </c>
       <c r="L69">
-        <v>10.23</v>
+        <v>-0.79</v>
       </c>
       <c r="M69">
-        <v>37.45</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>301357</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>59.5</v>
+        <v>51.35</v>
       </c>
       <c r="E70">
-        <v>60.25</v>
+        <v>61.39</v>
       </c>
       <c r="F70">
-        <v>62</v>
+        <v>61.39</v>
       </c>
       <c r="G70">
-        <v>59.01</v>
+        <v>51.35</v>
       </c>
       <c r="H70">
-        <v>68679</v>
+        <v>60375</v>
       </c>
       <c r="I70">
-        <v>417003351</v>
+        <v>349526936</v>
       </c>
       <c r="J70">
-        <v>4.87</v>
+        <v>19.62</v>
       </c>
       <c r="K70">
-        <v>-1.86</v>
+        <v>20</v>
       </c>
       <c r="L70">
-        <v>-1.14</v>
+        <v>10.23</v>
       </c>
       <c r="M70">
-        <v>42.6</v>
+        <v>37.45</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>301357</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71">
-        <v>58.52</v>
+        <v>59.5</v>
       </c>
       <c r="E71">
-        <v>60.28</v>
+        <v>60.25</v>
       </c>
       <c r="F71">
-        <v>62.16</v>
+        <v>62</v>
       </c>
       <c r="G71">
-        <v>58</v>
+        <v>59.01</v>
       </c>
       <c r="H71">
-        <v>47571</v>
+        <v>68679</v>
       </c>
       <c r="I71">
-        <v>284421801</v>
+        <v>417003351</v>
       </c>
       <c r="J71">
-        <v>6.9</v>
+        <v>4.87</v>
       </c>
       <c r="K71">
-        <v>0.05</v>
+        <v>-1.86</v>
       </c>
       <c r="L71">
-        <v>0.03</v>
+        <v>-1.14</v>
       </c>
       <c r="M71">
-        <v>29.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>301357</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>59.69</v>
+        <v>58.52</v>
       </c>
       <c r="E72">
-        <v>58.74</v>
+        <v>60.28</v>
       </c>
       <c r="F72">
-        <v>60.88</v>
+        <v>62.16</v>
       </c>
       <c r="G72">
-        <v>56.81</v>
+        <v>58</v>
       </c>
       <c r="H72">
-        <v>40819</v>
+        <v>47571</v>
       </c>
       <c r="I72">
-        <v>238806033</v>
+        <v>284421801</v>
       </c>
       <c r="J72">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="K72">
-        <v>-2.55</v>
+        <v>0.05</v>
       </c>
       <c r="L72">
-        <v>-1.54</v>
+        <v>0.03</v>
       </c>
       <c r="M72">
-        <v>25.32</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>301357</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>58.2</v>
+        <v>59.69</v>
       </c>
       <c r="E73">
-        <v>57.7</v>
+        <v>58.74</v>
       </c>
       <c r="F73">
-        <v>58.88</v>
+        <v>60.88</v>
       </c>
       <c r="G73">
-        <v>56.78</v>
+        <v>56.81</v>
       </c>
       <c r="H73">
-        <v>23750</v>
+        <v>40819</v>
       </c>
       <c r="I73">
-        <v>136562211</v>
+        <v>238806033</v>
       </c>
       <c r="J73">
-        <v>3.58</v>
+        <v>6.75</v>
       </c>
       <c r="K73">
-        <v>-1.77</v>
+        <v>-2.55</v>
       </c>
       <c r="L73">
-        <v>-1.04</v>
+        <v>-1.54</v>
       </c>
       <c r="M73">
-        <v>14.73</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>301357</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>57.08</v>
+        <v>58.2</v>
       </c>
       <c r="E74">
-        <v>56.68</v>
+        <v>57.7</v>
       </c>
       <c r="F74">
-        <v>58.03</v>
+        <v>58.88</v>
       </c>
       <c r="G74">
-        <v>55.91</v>
+        <v>56.78</v>
       </c>
       <c r="H74">
-        <v>22223</v>
+        <v>23750</v>
       </c>
       <c r="I74">
-        <v>126127228</v>
+        <v>136562211</v>
       </c>
       <c r="J74">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="K74">
         <v>-1.77</v>
       </c>
       <c r="L74">
-        <v>-1.02</v>
+        <v>-1.04</v>
       </c>
       <c r="M74">
-        <v>13.78</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>301357</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>55.65</v>
+        <v>57.08</v>
       </c>
       <c r="E75">
-        <v>53.35</v>
+        <v>56.68</v>
       </c>
       <c r="F75">
-        <v>55.65</v>
+        <v>58.03</v>
       </c>
       <c r="G75">
-        <v>52.85</v>
+        <v>55.91</v>
       </c>
       <c r="H75">
-        <v>33504</v>
+        <v>22223</v>
       </c>
       <c r="I75">
-        <v>179978845</v>
+        <v>126127228</v>
       </c>
       <c r="J75">
-        <v>4.94</v>
+        <v>3.67</v>
       </c>
       <c r="K75">
-        <v>-5.88</v>
+        <v>-1.77</v>
       </c>
       <c r="L75">
-        <v>-3.33</v>
+        <v>-1.02</v>
       </c>
       <c r="M75">
-        <v>20.78</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>301357</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>53</v>
+        <v>55.65</v>
       </c>
       <c r="E76">
-        <v>53.58</v>
+        <v>53.35</v>
       </c>
       <c r="F76">
-        <v>53.89</v>
+        <v>55.65</v>
       </c>
       <c r="G76">
-        <v>52.52</v>
+        <v>52.85</v>
       </c>
       <c r="H76">
-        <v>18320</v>
+        <v>33504</v>
       </c>
       <c r="I76">
-        <v>97939172</v>
+        <v>179978845</v>
       </c>
       <c r="J76">
-        <v>2.57</v>
+        <v>4.94</v>
       </c>
       <c r="K76">
-        <v>0.43</v>
+        <v>-5.88</v>
       </c>
       <c r="L76">
-        <v>0.23</v>
+        <v>-3.33</v>
       </c>
       <c r="M76">
-        <v>11.36</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>301357</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>53.6</v>
+        <v>53</v>
       </c>
       <c r="E77">
-        <v>54.22</v>
+        <v>53.58</v>
       </c>
       <c r="F77">
-        <v>54.55</v>
+        <v>53.89</v>
       </c>
       <c r="G77">
-        <v>53.03</v>
+        <v>52.52</v>
       </c>
       <c r="H77">
-        <v>21448</v>
+        <v>18320</v>
       </c>
       <c r="I77">
-        <v>115520825</v>
+        <v>97939172</v>
       </c>
       <c r="J77">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="K77">
-        <v>1.19</v>
+        <v>0.43</v>
       </c>
       <c r="L77">
-        <v>0.64</v>
+        <v>0.23</v>
       </c>
       <c r="M77">
-        <v>13.3</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>301357</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>54.59</v>
+        <v>53.6</v>
       </c>
       <c r="E78">
-        <v>55.67</v>
+        <v>54.22</v>
       </c>
       <c r="F78">
-        <v>58.38</v>
+        <v>54.55</v>
       </c>
       <c r="G78">
-        <v>53.54</v>
+        <v>53.03</v>
       </c>
       <c r="H78">
-        <v>45381</v>
+        <v>21448</v>
       </c>
       <c r="I78">
-        <v>256074062</v>
+        <v>115520825</v>
       </c>
       <c r="J78">
-        <v>8.93</v>
+        <v>2.84</v>
       </c>
       <c r="K78">
-        <v>2.67</v>
+        <v>1.19</v>
       </c>
       <c r="L78">
-        <v>1.45</v>
+        <v>0.64</v>
       </c>
       <c r="M78">
-        <v>28.15</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>301357</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>53.99</v>
+        <v>54.59</v>
       </c>
       <c r="E79">
-        <v>56.08</v>
+        <v>55.67</v>
       </c>
       <c r="F79">
-        <v>57.6</v>
+        <v>58.38</v>
       </c>
       <c r="G79">
-        <v>53.8</v>
+        <v>53.54</v>
       </c>
       <c r="H79">
-        <v>32429</v>
+        <v>45381</v>
       </c>
       <c r="I79">
-        <v>181849222</v>
+        <v>256074062</v>
       </c>
       <c r="J79">
-        <v>6.83</v>
+        <v>8.93</v>
       </c>
       <c r="K79">
-        <v>0.74</v>
+        <v>2.67</v>
       </c>
       <c r="L79">
-        <v>0.41</v>
+        <v>1.45</v>
       </c>
       <c r="M79">
-        <v>20.11</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>301357</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>55.58</v>
+        <v>53.99</v>
       </c>
       <c r="E80">
-        <v>57.65</v>
+        <v>56.08</v>
       </c>
       <c r="F80">
-        <v>59.98</v>
+        <v>57.6</v>
       </c>
       <c r="G80">
-        <v>55.58</v>
+        <v>53.8</v>
       </c>
       <c r="H80">
-        <v>47844</v>
+        <v>32429</v>
       </c>
       <c r="I80">
-        <v>277710448</v>
+        <v>181849222</v>
       </c>
       <c r="J80">
-        <v>7.85</v>
+        <v>6.83</v>
       </c>
       <c r="K80">
-        <v>2.8</v>
+        <v>0.74</v>
       </c>
       <c r="L80">
-        <v>1.57</v>
+        <v>0.41</v>
       </c>
       <c r="M80">
-        <v>29.67</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>301357</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>57.43</v>
+        <v>55.58</v>
       </c>
       <c r="E81">
-        <v>59.9</v>
+        <v>57.65</v>
       </c>
       <c r="F81">
-        <v>60.87</v>
+        <v>59.98</v>
       </c>
       <c r="G81">
-        <v>56.52</v>
+        <v>55.58</v>
       </c>
       <c r="H81">
-        <v>45237</v>
+        <v>47844</v>
       </c>
       <c r="I81">
-        <v>266209373</v>
+        <v>277710448</v>
       </c>
       <c r="J81">
-        <v>7.55</v>
+        <v>7.85</v>
       </c>
       <c r="K81">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="M81">
-        <v>28.06</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>301357</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>58.5</v>
+        <v>57.43</v>
       </c>
       <c r="E82">
-        <v>58.54</v>
+        <v>59.9</v>
       </c>
       <c r="F82">
-        <v>59</v>
+        <v>60.87</v>
       </c>
       <c r="G82">
-        <v>57.33</v>
+        <v>56.52</v>
       </c>
       <c r="H82">
-        <v>31346</v>
+        <v>45237</v>
       </c>
       <c r="I82">
-        <v>181805585</v>
+        <v>266209373</v>
       </c>
       <c r="J82">
-        <v>2.79</v>
+        <v>7.55</v>
       </c>
       <c r="K82">
-        <v>-2.27</v>
+        <v>3.9</v>
       </c>
       <c r="L82">
-        <v>-1.36</v>
+        <v>2.25</v>
       </c>
       <c r="M82">
-        <v>19.44</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>301357</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>57.73</v>
+        <v>58.5</v>
       </c>
       <c r="E83">
-        <v>57.31</v>
+        <v>58.54</v>
       </c>
       <c r="F83">
-        <v>60.5</v>
+        <v>59</v>
       </c>
       <c r="G83">
-        <v>56.65</v>
+        <v>57.33</v>
       </c>
       <c r="H83">
-        <v>33799</v>
+        <v>31346</v>
       </c>
       <c r="I83">
-        <v>197282858</v>
+        <v>181805585</v>
       </c>
       <c r="J83">
-        <v>6.58</v>
+        <v>2.79</v>
       </c>
       <c r="K83">
-        <v>-2.1</v>
+        <v>-2.27</v>
       </c>
       <c r="L83">
-        <v>-1.23</v>
+        <v>-1.36</v>
       </c>
       <c r="M83">
-        <v>20.96</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>301357</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>56.66</v>
+        <v>57.73</v>
       </c>
       <c r="E84">
-        <v>64.45999999999999</v>
+        <v>57.31</v>
       </c>
       <c r="F84">
-        <v>68.7</v>
+        <v>60.5</v>
       </c>
       <c r="G84">
-        <v>56.16</v>
+        <v>56.65</v>
       </c>
       <c r="H84">
-        <v>74465</v>
+        <v>33799</v>
       </c>
       <c r="I84">
-        <v>471897396</v>
+        <v>197282858</v>
       </c>
       <c r="J84">
-        <v>21.88</v>
+        <v>6.58</v>
       </c>
       <c r="K84">
-        <v>12.48</v>
+        <v>-2.1</v>
       </c>
       <c r="L84">
-        <v>7.15</v>
+        <v>-1.23</v>
       </c>
       <c r="M84">
-        <v>46.19</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>301357</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D85">
+        <v>56.66</v>
+      </c>
+      <c r="E85">
         <v>64.45999999999999</v>
       </c>
-      <c r="E85">
-        <v>61.52</v>
-      </c>
       <c r="F85">
-        <v>65.8</v>
+        <v>68.7</v>
       </c>
       <c r="G85">
-        <v>61.46</v>
+        <v>56.16</v>
       </c>
       <c r="H85">
-        <v>59771</v>
+        <v>74465</v>
       </c>
       <c r="I85">
-        <v>376134010</v>
+        <v>471897396</v>
       </c>
       <c r="J85">
-        <v>6.73</v>
+        <v>21.88</v>
       </c>
       <c r="K85">
-        <v>-4.56</v>
+        <v>12.48</v>
       </c>
       <c r="L85">
-        <v>-2.94</v>
+        <v>7.15</v>
       </c>
       <c r="M85">
-        <v>37.07</v>
+        <v>46.19</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>301357</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>62.23</v>
+        <v>64.45999999999999</v>
       </c>
       <c r="E86">
-        <v>62.15</v>
+        <v>61.52</v>
       </c>
       <c r="F86">
-        <v>68.88</v>
+        <v>65.8</v>
       </c>
       <c r="G86">
-        <v>60.88</v>
+        <v>61.46</v>
       </c>
       <c r="H86">
-        <v>60020</v>
+        <v>59771</v>
       </c>
       <c r="I86">
-        <v>386699020</v>
+        <v>376134010</v>
       </c>
       <c r="J86">
-        <v>13</v>
+        <v>6.73</v>
       </c>
       <c r="K86">
-        <v>1.02</v>
+        <v>-4.56</v>
       </c>
       <c r="L86">
-        <v>0.63</v>
+        <v>-2.94</v>
       </c>
       <c r="M86">
-        <v>37.23</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>301357</v>
+      </c>
+      <c r="C87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87">
+        <v>62.23</v>
+      </c>
+      <c r="E87">
+        <v>62.15</v>
+      </c>
+      <c r="F87">
+        <v>68.88</v>
+      </c>
+      <c r="G87">
+        <v>60.88</v>
+      </c>
+      <c r="H87">
+        <v>60020</v>
+      </c>
+      <c r="I87">
+        <v>386699020</v>
+      </c>
+      <c r="J87">
         <v>13</v>
       </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87">
-        <v>59.61</v>
-      </c>
-      <c r="E87">
-        <v>64</v>
-      </c>
-      <c r="F87">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="G87">
-        <v>59.6</v>
-      </c>
-      <c r="H87">
-        <v>66373</v>
-      </c>
-      <c r="I87">
-        <v>423388434</v>
-      </c>
-      <c r="J87">
-        <v>13.53</v>
-      </c>
       <c r="K87">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="L87">
-        <v>1.85</v>
+        <v>0.63</v>
       </c>
       <c r="M87">
-        <v>41.17</v>
+        <v>37.23</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>301357</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>61.86</v>
+        <v>59.61</v>
       </c>
       <c r="E88">
-        <v>58.3</v>
+        <v>64</v>
       </c>
       <c r="F88">
-        <v>61.86</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="G88">
-        <v>58</v>
+        <v>59.6</v>
       </c>
       <c r="H88">
-        <v>48753</v>
+        <v>66373</v>
       </c>
       <c r="I88">
-        <v>288878535</v>
+        <v>423388434</v>
       </c>
       <c r="J88">
-        <v>6.03</v>
+        <v>13.53</v>
       </c>
       <c r="K88">
-        <v>-8.91</v>
+        <v>2.98</v>
       </c>
       <c r="L88">
-        <v>-5.7</v>
+        <v>1.85</v>
       </c>
       <c r="M88">
-        <v>30.24</v>
+        <v>41.17</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>301357</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>57.45</v>
+        <v>61.86</v>
       </c>
       <c r="E89">
-        <v>54.78</v>
+        <v>58.3</v>
       </c>
       <c r="F89">
-        <v>57.9</v>
+        <v>61.86</v>
       </c>
       <c r="G89">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H89">
-        <v>35967</v>
+        <v>48753</v>
       </c>
       <c r="I89">
-        <v>199501659</v>
+        <v>288878535</v>
       </c>
       <c r="J89">
-        <v>6.69</v>
+        <v>6.03</v>
       </c>
       <c r="K89">
-        <v>-6.04</v>
+        <v>-8.91</v>
       </c>
       <c r="L89">
-        <v>-3.52</v>
+        <v>-5.7</v>
       </c>
       <c r="M89">
-        <v>22.31</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>301357</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>53.69</v>
+        <v>57.45</v>
       </c>
       <c r="E90">
-        <v>51.1</v>
+        <v>54.78</v>
       </c>
       <c r="F90">
-        <v>54.65</v>
+        <v>57.9</v>
       </c>
       <c r="G90">
-        <v>50.06</v>
+        <v>54</v>
       </c>
       <c r="H90">
-        <v>32350</v>
+        <v>35967</v>
       </c>
       <c r="I90">
-        <v>169026800</v>
+        <v>199501659</v>
       </c>
       <c r="J90">
-        <v>8.380000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="K90">
-        <v>-6.72</v>
+        <v>-6.04</v>
       </c>
       <c r="L90">
-        <v>-3.68</v>
+        <v>-3.52</v>
       </c>
       <c r="M90">
-        <v>20.06</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>301357</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>54.33</v>
+        <v>53.69</v>
       </c>
       <c r="E91">
-        <v>50.1</v>
+        <v>51.1</v>
       </c>
       <c r="F91">
-        <v>54.87</v>
+        <v>54.65</v>
       </c>
       <c r="G91">
-        <v>49.78</v>
+        <v>50.06</v>
       </c>
       <c r="H91">
-        <v>30408</v>
+        <v>32350</v>
       </c>
       <c r="I91">
-        <v>158548620</v>
+        <v>169026800</v>
       </c>
       <c r="J91">
-        <v>9.960000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K91">
-        <v>-1.96</v>
+        <v>-6.72</v>
       </c>
       <c r="L91">
-        <v>-1</v>
+        <v>-3.68</v>
       </c>
       <c r="M91">
-        <v>18.86</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>301357</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>46.79</v>
+        <v>54.33</v>
       </c>
       <c r="E92">
-        <v>52.06</v>
+        <v>50.1</v>
       </c>
       <c r="F92">
-        <v>52.51</v>
+        <v>54.87</v>
       </c>
       <c r="G92">
-        <v>46.69</v>
+        <v>49.78</v>
       </c>
       <c r="H92">
-        <v>35416</v>
+        <v>30408</v>
       </c>
       <c r="I92">
-        <v>179068005</v>
+        <v>158548620</v>
       </c>
       <c r="J92">
-        <v>11.62</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="K92">
-        <v>3.91</v>
+        <v>-1.96</v>
       </c>
       <c r="L92">
-        <v>1.96</v>
+        <v>-1</v>
       </c>
       <c r="M92">
-        <v>21.97</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>301357</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>51.58</v>
+        <v>46.79</v>
       </c>
       <c r="E93">
-        <v>52.17</v>
+        <v>52.06</v>
       </c>
       <c r="F93">
-        <v>53.59</v>
+        <v>52.51</v>
       </c>
       <c r="G93">
-        <v>51.38</v>
+        <v>46.69</v>
       </c>
       <c r="H93">
-        <v>22663</v>
+        <v>35416</v>
       </c>
       <c r="I93">
-        <v>118856587</v>
+        <v>179068005</v>
       </c>
       <c r="J93">
-        <v>4.25</v>
+        <v>11.62</v>
       </c>
       <c r="K93">
-        <v>0.21</v>
+        <v>3.91</v>
       </c>
       <c r="L93">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="M93">
-        <v>14.06</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>301357</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D94">
-        <v>52.23</v>
+        <v>51.58</v>
       </c>
       <c r="E94">
-        <v>52.9</v>
+        <v>52.17</v>
       </c>
       <c r="F94">
-        <v>52.93</v>
+        <v>53.59</v>
       </c>
       <c r="G94">
         <v>51.38</v>
       </c>
       <c r="H94">
-        <v>18290</v>
+        <v>22663</v>
       </c>
       <c r="I94">
-        <v>95770479</v>
+        <v>118856587</v>
       </c>
       <c r="J94">
-        <v>2.97</v>
+        <v>4.25</v>
       </c>
       <c r="K94">
-        <v>1.4</v>
+        <v>0.21</v>
       </c>
       <c r="L94">
-        <v>0.73</v>
+        <v>0.11</v>
       </c>
       <c r="M94">
-        <v>11.34</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>301357</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>53.25</v>
+        <v>52.23</v>
       </c>
       <c r="E95">
-        <v>53.31</v>
+        <v>52.9</v>
       </c>
       <c r="F95">
-        <v>53.87</v>
+        <v>52.93</v>
       </c>
       <c r="G95">
-        <v>51.88</v>
+        <v>51.38</v>
       </c>
       <c r="H95">
-        <v>19888</v>
+        <v>18290</v>
       </c>
       <c r="I95">
-        <v>105025281</v>
+        <v>95770479</v>
       </c>
       <c r="J95">
-        <v>3.76</v>
+        <v>2.97</v>
       </c>
       <c r="K95">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="L95">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
       <c r="M95">
-        <v>12.33</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>301357</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>52.78</v>
+        <v>53.25</v>
       </c>
       <c r="E96">
-        <v>52.2</v>
+        <v>53.31</v>
       </c>
       <c r="F96">
-        <v>53.3</v>
+        <v>53.87</v>
       </c>
       <c r="G96">
-        <v>51.67</v>
+        <v>51.88</v>
       </c>
       <c r="H96">
-        <v>17378</v>
+        <v>19888</v>
       </c>
       <c r="I96">
-        <v>90631668</v>
+        <v>105025281</v>
       </c>
       <c r="J96">
-        <v>3.06</v>
+        <v>3.76</v>
       </c>
       <c r="K96">
-        <v>-2.08</v>
+        <v>0.78</v>
       </c>
       <c r="L96">
-        <v>-1.11</v>
+        <v>0.41</v>
       </c>
       <c r="M96">
-        <v>10.78</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>301357</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D97">
-        <v>51.84</v>
+        <v>52.78</v>
       </c>
       <c r="E97">
-        <v>50.85</v>
+        <v>52.2</v>
       </c>
       <c r="F97">
-        <v>52.19</v>
+        <v>53.3</v>
       </c>
       <c r="G97">
-        <v>50.38</v>
+        <v>51.67</v>
       </c>
       <c r="H97">
-        <v>17671</v>
+        <v>17378</v>
       </c>
       <c r="I97">
-        <v>90158317</v>
+        <v>90631668</v>
       </c>
       <c r="J97">
-        <v>3.47</v>
+        <v>3.06</v>
       </c>
       <c r="K97">
-        <v>-2.59</v>
+        <v>-2.08</v>
       </c>
       <c r="L97">
-        <v>-1.35</v>
+        <v>-1.11</v>
       </c>
       <c r="M97">
-        <v>10.96</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>301357</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D98">
-        <v>51</v>
+        <v>51.84</v>
       </c>
       <c r="E98">
-        <v>52.7</v>
+        <v>50.85</v>
       </c>
       <c r="F98">
-        <v>53.1</v>
+        <v>52.19</v>
       </c>
       <c r="G98">
-        <v>50.57</v>
+        <v>50.38</v>
       </c>
       <c r="H98">
-        <v>24450</v>
+        <v>17671</v>
       </c>
       <c r="I98">
-        <v>127312759</v>
+        <v>90158317</v>
       </c>
       <c r="J98">
-        <v>4.98</v>
+        <v>3.47</v>
       </c>
       <c r="K98">
-        <v>3.64</v>
+        <v>-2.59</v>
       </c>
       <c r="L98">
-        <v>1.85</v>
+        <v>-1.35</v>
       </c>
       <c r="M98">
-        <v>15.16</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>301357</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>52.23</v>
+        <v>51</v>
       </c>
       <c r="E99">
-        <v>51.2</v>
+        <v>52.7</v>
       </c>
       <c r="F99">
-        <v>53.19</v>
+        <v>53.1</v>
       </c>
       <c r="G99">
-        <v>50.88</v>
+        <v>50.57</v>
       </c>
       <c r="H99">
-        <v>19950</v>
+        <v>24450</v>
       </c>
       <c r="I99">
-        <v>103863000</v>
+        <v>127312759</v>
       </c>
       <c r="J99">
-        <v>4.38</v>
+        <v>4.98</v>
       </c>
       <c r="K99">
-        <v>-2.85</v>
+        <v>3.64</v>
       </c>
       <c r="L99">
-        <v>-1.5</v>
+        <v>1.85</v>
       </c>
       <c r="M99">
-        <v>12.37</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>301357</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>50.98</v>
+        <v>52.23</v>
       </c>
       <c r="E100">
-        <v>53.06</v>
+        <v>51.2</v>
       </c>
       <c r="F100">
-        <v>54.88</v>
+        <v>53.19</v>
       </c>
       <c r="G100">
-        <v>50.98</v>
+        <v>50.88</v>
       </c>
       <c r="H100">
-        <v>27976</v>
+        <v>19950</v>
       </c>
       <c r="I100">
-        <v>149000622</v>
+        <v>103863000</v>
       </c>
       <c r="J100">
-        <v>7.62</v>
+        <v>4.38</v>
       </c>
       <c r="K100">
-        <v>3.63</v>
+        <v>-2.85</v>
       </c>
       <c r="L100">
-        <v>1.86</v>
+        <v>-1.5</v>
       </c>
       <c r="M100">
-        <v>17.35</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>301357</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>52.66</v>
+        <v>50.98</v>
       </c>
       <c r="E101">
-        <v>53.35</v>
+        <v>53.06</v>
       </c>
       <c r="F101">
-        <v>53.63</v>
+        <v>54.88</v>
       </c>
       <c r="G101">
-        <v>52.11</v>
+        <v>50.98</v>
       </c>
       <c r="H101">
-        <v>19697</v>
+        <v>27976</v>
       </c>
       <c r="I101">
-        <v>104521462</v>
+        <v>149000622</v>
       </c>
       <c r="J101">
-        <v>2.86</v>
+        <v>7.62</v>
       </c>
       <c r="K101">
-        <v>0.55</v>
+        <v>3.63</v>
       </c>
       <c r="L101">
-        <v>0.29</v>
+        <v>1.86</v>
       </c>
       <c r="M101">
-        <v>12.22</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>301357</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>52.89</v>
+        <v>52.66</v>
       </c>
       <c r="E102">
-        <v>52.74</v>
+        <v>53.35</v>
       </c>
       <c r="F102">
-        <v>53.42</v>
+        <v>53.63</v>
       </c>
       <c r="G102">
-        <v>52.59</v>
+        <v>52.11</v>
       </c>
       <c r="H102">
-        <v>12105</v>
+        <v>19697</v>
       </c>
       <c r="I102">
-        <v>64009382</v>
+        <v>104521462</v>
       </c>
       <c r="J102">
-        <v>1.56</v>
+        <v>2.86</v>
       </c>
       <c r="K102">
-        <v>-1.14</v>
+        <v>0.55</v>
       </c>
       <c r="L102">
-        <v>-0.61</v>
+        <v>0.29</v>
       </c>
       <c r="M102">
-        <v>7.51</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>301357</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>52.9</v>
+        <v>52.89</v>
       </c>
       <c r="E103">
-        <v>51.07</v>
+        <v>52.74</v>
       </c>
       <c r="F103">
-        <v>52.9</v>
+        <v>53.42</v>
       </c>
       <c r="G103">
-        <v>50.17</v>
+        <v>52.59</v>
       </c>
       <c r="H103">
-        <v>18477</v>
+        <v>12105</v>
       </c>
       <c r="I103">
-        <v>94135975</v>
+        <v>64009382</v>
       </c>
       <c r="J103">
-        <v>5.18</v>
+        <v>1.56</v>
       </c>
       <c r="K103">
-        <v>-3.17</v>
+        <v>-1.14</v>
       </c>
       <c r="L103">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="M103">
-        <v>11.46</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>301357</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>50.8</v>
+        <v>52.9</v>
       </c>
       <c r="E104">
-        <v>49.93</v>
+        <v>51.07</v>
       </c>
       <c r="F104">
-        <v>51.28</v>
+        <v>52.9</v>
       </c>
       <c r="G104">
-        <v>49.6</v>
+        <v>50.17</v>
       </c>
       <c r="H104">
-        <v>10383</v>
+        <v>18477</v>
       </c>
       <c r="I104">
-        <v>52246608</v>
+        <v>94135975</v>
       </c>
       <c r="J104">
-        <v>3.29</v>
+        <v>5.18</v>
       </c>
       <c r="K104">
-        <v>-2.23</v>
+        <v>-3.17</v>
       </c>
       <c r="L104">
-        <v>-1.14</v>
+        <v>-1.67</v>
       </c>
       <c r="M104">
-        <v>6.44</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>301357</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="E105">
-        <v>49.46</v>
+        <v>49.93</v>
       </c>
       <c r="F105">
-        <v>50.4</v>
+        <v>51.28</v>
       </c>
       <c r="G105">
-        <v>49.24</v>
+        <v>49.6</v>
       </c>
       <c r="H105">
-        <v>8252</v>
+        <v>10383</v>
       </c>
       <c r="I105">
-        <v>41061176</v>
+        <v>52246608</v>
       </c>
       <c r="J105">
-        <v>2.32</v>
+        <v>3.29</v>
       </c>
       <c r="K105">
-        <v>-0.9399999999999999</v>
+        <v>-2.23</v>
       </c>
       <c r="L105">
-        <v>-0.47</v>
+        <v>-1.14</v>
       </c>
       <c r="M105">
-        <v>5.12</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>301357</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D106">
+        <v>50</v>
+      </c>
+      <c r="E106">
         <v>49.46</v>
       </c>
-      <c r="E106">
-        <v>49.91</v>
-      </c>
       <c r="F106">
-        <v>50.89</v>
+        <v>50.4</v>
       </c>
       <c r="G106">
-        <v>49.11</v>
+        <v>49.24</v>
       </c>
       <c r="H106">
-        <v>8622</v>
+        <v>8252</v>
       </c>
       <c r="I106">
-        <v>43184624</v>
+        <v>41061176</v>
       </c>
       <c r="J106">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="K106">
-        <v>0.91</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L106">
-        <v>0.45</v>
+        <v>-0.47</v>
       </c>
       <c r="M106">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>301357</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>49.9</v>
+        <v>49.46</v>
       </c>
       <c r="E107">
-        <v>48.22</v>
+        <v>49.91</v>
       </c>
       <c r="F107">
-        <v>49.96</v>
+        <v>50.89</v>
       </c>
       <c r="G107">
-        <v>48.22</v>
+        <v>49.11</v>
       </c>
       <c r="H107">
-        <v>10573</v>
+        <v>8622</v>
       </c>
       <c r="I107">
-        <v>51483583</v>
+        <v>43184624</v>
       </c>
       <c r="J107">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="K107">
-        <v>-3.39</v>
+        <v>0.91</v>
       </c>
       <c r="L107">
-        <v>-1.69</v>
+        <v>0.45</v>
       </c>
       <c r="M107">
-        <v>6.56</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>301357</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>48.31</v>
+        <v>49.9</v>
       </c>
       <c r="E108">
-        <v>47.75</v>
+        <v>48.22</v>
       </c>
       <c r="F108">
-        <v>48.62</v>
+        <v>49.96</v>
       </c>
       <c r="G108">
-        <v>47.5</v>
+        <v>48.22</v>
       </c>
       <c r="H108">
-        <v>6663</v>
+        <v>10573</v>
       </c>
       <c r="I108">
-        <v>32027739</v>
+        <v>51483583</v>
       </c>
       <c r="J108">
-        <v>2.32</v>
+        <v>3.49</v>
       </c>
       <c r="K108">
-        <v>-0.97</v>
+        <v>-3.39</v>
       </c>
       <c r="L108">
-        <v>-0.47</v>
+        <v>-1.69</v>
       </c>
       <c r="M108">
-        <v>4.13</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>301357</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>47.81</v>
+        <v>48.31</v>
       </c>
       <c r="E109">
-        <v>47.62</v>
+        <v>47.75</v>
       </c>
       <c r="F109">
-        <v>48.52</v>
+        <v>48.62</v>
       </c>
       <c r="G109">
-        <v>47.43</v>
+        <v>47.5</v>
       </c>
       <c r="H109">
-        <v>6184</v>
+        <v>6663</v>
       </c>
       <c r="I109">
-        <v>29565552</v>
+        <v>32027739</v>
       </c>
       <c r="J109">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="K109">
-        <v>-0.27</v>
+        <v>-0.97</v>
       </c>
       <c r="L109">
-        <v>-0.13</v>
+        <v>-0.47</v>
       </c>
       <c r="M109">
-        <v>3.84</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>301357</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D110">
+        <v>47.81</v>
+      </c>
+      <c r="E110">
         <v>47.62</v>
       </c>
-      <c r="E110">
-        <v>48.5</v>
-      </c>
       <c r="F110">
-        <v>48.58</v>
+        <v>48.52</v>
       </c>
       <c r="G110">
-        <v>47.32</v>
+        <v>47.43</v>
       </c>
       <c r="H110">
-        <v>8761</v>
+        <v>6184</v>
       </c>
       <c r="I110">
-        <v>42116735</v>
+        <v>29565552</v>
       </c>
       <c r="J110">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="K110">
-        <v>1.85</v>
+        <v>-0.27</v>
       </c>
       <c r="L110">
-        <v>0.88</v>
+        <v>-0.13</v>
       </c>
       <c r="M110">
-        <v>5.43</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>301357</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>48.24</v>
+        <v>47.62</v>
       </c>
       <c r="E111">
-        <v>47.4</v>
+        <v>48.5</v>
       </c>
       <c r="F111">
-        <v>48.51</v>
+        <v>48.58</v>
       </c>
       <c r="G111">
-        <v>47.16</v>
+        <v>47.32</v>
       </c>
       <c r="H111">
-        <v>11081</v>
+        <v>8761</v>
       </c>
       <c r="I111">
-        <v>52768787</v>
+        <v>42116735</v>
       </c>
       <c r="J111">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="K111">
-        <v>-2.27</v>
+        <v>1.85</v>
       </c>
       <c r="L111">
-        <v>-1.1</v>
+        <v>0.88</v>
       </c>
       <c r="M111">
-        <v>6.87</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>301357</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D112">
+        <v>48.24</v>
+      </c>
+      <c r="E112">
         <v>47.4</v>
       </c>
-      <c r="E112">
-        <v>47.43</v>
-      </c>
       <c r="F112">
-        <v>47.94</v>
+        <v>48.51</v>
       </c>
       <c r="G112">
-        <v>46.72</v>
+        <v>47.16</v>
       </c>
       <c r="H112">
-        <v>7888</v>
+        <v>11081</v>
       </c>
       <c r="I112">
-        <v>37381321</v>
+        <v>52768787</v>
       </c>
       <c r="J112">
-        <v>2.57</v>
+        <v>2.78</v>
       </c>
       <c r="K112">
-        <v>0.06</v>
+        <v>-2.27</v>
       </c>
       <c r="L112">
-        <v>0.03</v>
+        <v>-1.1</v>
       </c>
       <c r="M112">
-        <v>4.89</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>301357</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>47.15</v>
+        <v>47.4</v>
       </c>
       <c r="E113">
-        <v>47.71</v>
+        <v>47.43</v>
       </c>
       <c r="F113">
-        <v>48.26</v>
+        <v>47.94</v>
       </c>
       <c r="G113">
-        <v>47.15</v>
+        <v>46.72</v>
       </c>
       <c r="H113">
-        <v>8079</v>
+        <v>7888</v>
       </c>
       <c r="I113">
-        <v>38692123</v>
+        <v>37381321</v>
       </c>
       <c r="J113">
-        <v>2.34</v>
+        <v>2.57</v>
       </c>
       <c r="K113">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="L113">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="M113">
-        <v>5.01</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>301357</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114">
-        <v>47.72</v>
+        <v>47.15</v>
       </c>
       <c r="E114">
-        <v>48.37</v>
+        <v>47.71</v>
       </c>
       <c r="F114">
-        <v>48.69</v>
+        <v>48.26</v>
       </c>
       <c r="G114">
-        <v>47.72</v>
+        <v>47.15</v>
       </c>
       <c r="H114">
-        <v>10213</v>
+        <v>8079</v>
       </c>
       <c r="I114">
-        <v>49281377</v>
+        <v>38692123</v>
       </c>
       <c r="J114">
-        <v>2.03</v>
+        <v>2.34</v>
       </c>
       <c r="K114">
-        <v>1.38</v>
+        <v>0.59</v>
       </c>
       <c r="L114">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="M114">
-        <v>6.33</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>301357</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>49.1</v>
+        <v>47.72</v>
       </c>
       <c r="E115">
-        <v>49.35</v>
+        <v>48.37</v>
       </c>
       <c r="F115">
-        <v>49.79</v>
+        <v>48.69</v>
       </c>
       <c r="G115">
-        <v>48.66</v>
+        <v>47.72</v>
       </c>
       <c r="H115">
-        <v>14203</v>
+        <v>10213</v>
       </c>
       <c r="I115">
-        <v>69779693</v>
+        <v>49281377</v>
       </c>
       <c r="J115">
-        <v>2.34</v>
+        <v>2.03</v>
       </c>
       <c r="K115">
-        <v>2.03</v>
+        <v>1.38</v>
       </c>
       <c r="L115">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="M115">
-        <v>8.81</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>301357</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D116">
-        <v>49.96</v>
+        <v>49.1</v>
       </c>
       <c r="E116">
-        <v>50.73</v>
+        <v>49.35</v>
       </c>
       <c r="F116">
-        <v>51.49</v>
+        <v>49.79</v>
       </c>
       <c r="G116">
-        <v>49.5</v>
+        <v>48.66</v>
       </c>
       <c r="H116">
-        <v>21330</v>
+        <v>14203</v>
       </c>
       <c r="I116">
-        <v>107724088</v>
+        <v>69779693</v>
       </c>
       <c r="J116">
-        <v>4.03</v>
+        <v>2.34</v>
       </c>
       <c r="K116">
-        <v>2.8</v>
+        <v>2.03</v>
       </c>
       <c r="L116">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="M116">
-        <v>13.23</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>301357</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>49.61</v>
+        <v>49.96</v>
       </c>
       <c r="E117">
-        <v>49.41</v>
+        <v>50.73</v>
       </c>
       <c r="F117">
-        <v>50.1</v>
+        <v>51.49</v>
       </c>
       <c r="G117">
-        <v>49.02</v>
+        <v>49.5</v>
       </c>
       <c r="H117">
-        <v>14778</v>
+        <v>21330</v>
       </c>
       <c r="I117">
-        <v>73122468</v>
+        <v>107724088</v>
       </c>
       <c r="J117">
-        <v>2.13</v>
+        <v>4.03</v>
       </c>
       <c r="K117">
-        <v>-2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L117">
-        <v>-1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M117">
-        <v>9.17</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>301357</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>49.2</v>
+        <v>49.61</v>
       </c>
       <c r="E118">
-        <v>48.99</v>
+        <v>49.41</v>
       </c>
       <c r="F118">
-        <v>49.5</v>
+        <v>50.1</v>
       </c>
       <c r="G118">
-        <v>48.38</v>
+        <v>49.02</v>
       </c>
       <c r="H118">
-        <v>10315</v>
+        <v>14778</v>
       </c>
       <c r="I118">
-        <v>50310690</v>
+        <v>73122468</v>
       </c>
       <c r="J118">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="K118">
-        <v>-0.85</v>
+        <v>-2.6</v>
       </c>
       <c r="L118">
-        <v>-0.42</v>
+        <v>-1.32</v>
       </c>
       <c r="M118">
-        <v>6.4</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>301357</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>49.01</v>
+        <v>49.2</v>
       </c>
       <c r="E119">
-        <v>50.54</v>
+        <v>48.99</v>
       </c>
       <c r="F119">
-        <v>51.1</v>
+        <v>49.5</v>
       </c>
       <c r="G119">
-        <v>48.52</v>
+        <v>48.38</v>
       </c>
       <c r="H119">
-        <v>21718</v>
+        <v>10315</v>
       </c>
       <c r="I119">
-        <v>108848288</v>
+        <v>50310690</v>
       </c>
       <c r="J119">
-        <v>5.27</v>
+        <v>2.27</v>
       </c>
       <c r="K119">
-        <v>3.16</v>
+        <v>-0.85</v>
       </c>
       <c r="L119">
-        <v>1.55</v>
+        <v>-0.42</v>
       </c>
       <c r="M119">
-        <v>13.47</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>301357</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>50.5</v>
+        <v>49.01</v>
       </c>
       <c r="E120">
-        <v>52.56</v>
+        <v>50.54</v>
       </c>
       <c r="F120">
-        <v>55</v>
+        <v>51.1</v>
       </c>
       <c r="G120">
-        <v>49.96</v>
+        <v>48.52</v>
       </c>
       <c r="H120">
-        <v>43618</v>
+        <v>21718</v>
       </c>
       <c r="I120">
-        <v>229839810</v>
+        <v>108848288</v>
       </c>
       <c r="J120">
-        <v>9.970000000000001</v>
+        <v>5.27</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>3.16</v>
       </c>
       <c r="L120">
-        <v>2.02</v>
+        <v>1.55</v>
       </c>
       <c r="M120">
-        <v>27.05</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>301357</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>51.12</v>
+        <v>50.5</v>
       </c>
       <c r="E121">
-        <v>52.35</v>
+        <v>52.56</v>
       </c>
       <c r="F121">
-        <v>53.49</v>
+        <v>55</v>
       </c>
       <c r="G121">
-        <v>49.62</v>
+        <v>49.96</v>
       </c>
       <c r="H121">
-        <v>31433</v>
+        <v>43618</v>
       </c>
       <c r="I121">
-        <v>162825117</v>
+        <v>229839810</v>
       </c>
       <c r="J121">
-        <v>7.36</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K121">
-        <v>-0.4</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>-0.21</v>
+        <v>2.02</v>
       </c>
       <c r="M121">
-        <v>19.5</v>
+        <v>27.05</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>301357</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>51.29</v>
+        <v>51.12</v>
       </c>
       <c r="E122">
-        <v>55.6</v>
+        <v>52.35</v>
       </c>
       <c r="F122">
-        <v>55.89</v>
+        <v>53.49</v>
       </c>
       <c r="G122">
-        <v>50.02</v>
+        <v>49.62</v>
       </c>
       <c r="H122">
-        <v>63356</v>
+        <v>31433</v>
       </c>
       <c r="I122">
-        <v>341187680</v>
+        <v>162825117</v>
       </c>
       <c r="J122">
-        <v>11.21</v>
+        <v>7.36</v>
       </c>
       <c r="K122">
-        <v>6.21</v>
+        <v>-0.4</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>-0.21</v>
       </c>
       <c r="M122">
-        <v>37.27</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>301357</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>56.07</v>
+        <v>51.29</v>
       </c>
       <c r="E123">
-        <v>58.36</v>
+        <v>55.6</v>
       </c>
       <c r="F123">
-        <v>62.81</v>
+        <v>55.89</v>
       </c>
       <c r="G123">
-        <v>54.79</v>
+        <v>50.02</v>
       </c>
       <c r="H123">
-        <v>83733</v>
+        <v>63356</v>
       </c>
       <c r="I123">
-        <v>490904965</v>
+        <v>341187680</v>
       </c>
       <c r="J123">
-        <v>14.42</v>
+        <v>11.21</v>
       </c>
       <c r="K123">
-        <v>4.96</v>
+        <v>6.21</v>
       </c>
       <c r="L123">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>49.25</v>
+        <v>37.27</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>301357</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>57.24</v>
+        <v>56.07</v>
       </c>
       <c r="E124">
-        <v>56.65</v>
+        <v>58.36</v>
       </c>
       <c r="F124">
-        <v>60.8</v>
+        <v>62.81</v>
       </c>
       <c r="G124">
-        <v>53.81</v>
+        <v>54.79</v>
       </c>
       <c r="H124">
-        <v>65205</v>
+        <v>83733</v>
       </c>
       <c r="I124">
-        <v>368534532</v>
+        <v>490904965</v>
       </c>
       <c r="J124">
-        <v>11.98</v>
+        <v>14.42</v>
       </c>
       <c r="K124">
-        <v>-2.93</v>
+        <v>4.96</v>
       </c>
       <c r="L124">
-        <v>-1.71</v>
+        <v>2.76</v>
       </c>
       <c r="M124">
-        <v>38.36</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>301357</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>52.82</v>
+        <v>57.24</v>
       </c>
       <c r="E125">
-        <v>54.99</v>
+        <v>56.65</v>
       </c>
       <c r="F125">
-        <v>57.8</v>
+        <v>60.8</v>
       </c>
       <c r="G125">
-        <v>52.82</v>
+        <v>53.81</v>
       </c>
       <c r="H125">
-        <v>43509</v>
+        <v>65205</v>
       </c>
       <c r="I125">
-        <v>239021749</v>
+        <v>368534532</v>
       </c>
       <c r="J125">
-        <v>8.789999999999999</v>
+        <v>11.98</v>
       </c>
       <c r="K125">
         <v>-2.93</v>
       </c>
       <c r="L125">
-        <v>-1.66</v>
+        <v>-1.71</v>
       </c>
       <c r="M125">
-        <v>25.59</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>301357</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D126">
-        <v>56</v>
+        <v>52.82</v>
       </c>
       <c r="E126">
-        <v>55.64</v>
+        <v>54.99</v>
       </c>
       <c r="F126">
-        <v>57.21</v>
+        <v>57.8</v>
       </c>
       <c r="G126">
-        <v>53.05</v>
+        <v>52.82</v>
       </c>
       <c r="H126">
-        <v>46447</v>
+        <v>43509</v>
       </c>
       <c r="I126">
-        <v>258856940</v>
+        <v>239021749</v>
       </c>
       <c r="J126">
-        <v>7.57</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="K126">
-        <v>1.18</v>
+        <v>-2.93</v>
       </c>
       <c r="L126">
-        <v>0.65</v>
+        <v>-1.66</v>
       </c>
       <c r="M126">
-        <v>27.32</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>301357</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D127">
-        <v>54.89</v>
+        <v>56</v>
       </c>
       <c r="E127">
-        <v>57.73</v>
+        <v>55.64</v>
       </c>
       <c r="F127">
-        <v>58.15</v>
+        <v>57.21</v>
       </c>
       <c r="G127">
-        <v>53.8</v>
+        <v>53.05</v>
       </c>
       <c r="H127">
-        <v>54497</v>
+        <v>46447</v>
       </c>
       <c r="I127">
-        <v>308816634</v>
+        <v>258856940</v>
       </c>
       <c r="J127">
-        <v>7.82</v>
+        <v>7.57</v>
       </c>
       <c r="K127">
-        <v>3.76</v>
+        <v>1.18</v>
       </c>
       <c r="L127">
-        <v>2.09</v>
+        <v>0.65</v>
       </c>
       <c r="M127">
-        <v>32.06</v>
+        <v>27.32</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>301357</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>57.94</v>
+        <v>54.89</v>
       </c>
       <c r="E128">
-        <v>59.3</v>
+        <v>57.73</v>
       </c>
       <c r="F128">
-        <v>59.88</v>
+        <v>58.15</v>
       </c>
       <c r="G128">
-        <v>54.86</v>
+        <v>53.8</v>
       </c>
       <c r="H128">
-        <v>60308</v>
+        <v>54497</v>
       </c>
       <c r="I128">
-        <v>343218930</v>
+        <v>308816634</v>
       </c>
       <c r="J128">
-        <v>8.699999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="K128">
-        <v>2.72</v>
+        <v>3.76</v>
       </c>
       <c r="L128">
-        <v>1.57</v>
+        <v>2.09</v>
       </c>
       <c r="M128">
-        <v>35.48</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>301357</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>60</v>
+        <v>57.94</v>
       </c>
       <c r="E129">
-        <v>57.58</v>
+        <v>59.3</v>
       </c>
       <c r="F129">
-        <v>61.33</v>
+        <v>59.88</v>
       </c>
       <c r="G129">
-        <v>57.1</v>
+        <v>54.86</v>
       </c>
       <c r="H129">
-        <v>53210</v>
+        <v>60308</v>
       </c>
       <c r="I129">
-        <v>312359795</v>
+        <v>343218930</v>
       </c>
       <c r="J129">
-        <v>7.13</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K129">
-        <v>-2.9</v>
+        <v>2.72</v>
       </c>
       <c r="L129">
-        <v>-1.72</v>
+        <v>1.57</v>
       </c>
       <c r="M129">
-        <v>31.3</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>301357</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D130">
-        <v>55.84</v>
+        <v>60</v>
       </c>
       <c r="E130">
-        <v>54.62</v>
+        <v>57.58</v>
       </c>
       <c r="F130">
-        <v>56.35</v>
+        <v>61.33</v>
       </c>
       <c r="G130">
-        <v>54.62</v>
+        <v>57.1</v>
       </c>
       <c r="H130">
-        <v>41605</v>
+        <v>53210</v>
       </c>
       <c r="I130">
-        <v>229934737</v>
+        <v>312359795</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>7.13</v>
       </c>
       <c r="K130">
-        <v>-5.14</v>
+        <v>-2.9</v>
       </c>
       <c r="L130">
-        <v>-2.96</v>
+        <v>-1.72</v>
       </c>
       <c r="M130">
-        <v>24.47</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>301357</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>53.96</v>
+        <v>55.84</v>
       </c>
       <c r="E131">
-        <v>55.26</v>
+        <v>54.62</v>
       </c>
       <c r="F131">
-        <v>58.82</v>
+        <v>56.35</v>
       </c>
       <c r="G131">
-        <v>53.79</v>
+        <v>54.62</v>
       </c>
       <c r="H131">
-        <v>40651</v>
+        <v>41605</v>
       </c>
       <c r="I131">
-        <v>227752577</v>
+        <v>229934737</v>
       </c>
       <c r="J131">
-        <v>9.210000000000001</v>
+        <v>3</v>
       </c>
       <c r="K131">
-        <v>1.17</v>
+        <v>-5.14</v>
       </c>
       <c r="L131">
-        <v>0.64</v>
+        <v>-2.96</v>
       </c>
       <c r="M131">
-        <v>23.91</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>301357</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>53.85</v>
+        <v>53.96</v>
       </c>
       <c r="E132">
-        <v>53.91</v>
+        <v>55.26</v>
       </c>
       <c r="F132">
-        <v>54.95</v>
+        <v>58.82</v>
       </c>
       <c r="G132">
-        <v>52.83</v>
+        <v>53.79</v>
       </c>
       <c r="H132">
-        <v>30061</v>
+        <v>40651</v>
       </c>
       <c r="I132">
-        <v>161728418</v>
+        <v>227752577</v>
       </c>
       <c r="J132">
-        <v>3.84</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K132">
-        <v>-2.44</v>
+        <v>1.17</v>
       </c>
       <c r="L132">
-        <v>-1.35</v>
+        <v>0.64</v>
       </c>
       <c r="M132">
-        <v>17.68</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>301357</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>53.92</v>
+        <v>53.85</v>
       </c>
       <c r="E133">
-        <v>54.83</v>
+        <v>53.91</v>
       </c>
       <c r="F133">
-        <v>56.29</v>
+        <v>54.95</v>
       </c>
       <c r="G133">
-        <v>52.16</v>
+        <v>52.83</v>
       </c>
       <c r="H133">
-        <v>36708</v>
+        <v>30061</v>
       </c>
       <c r="I133">
-        <v>198435616</v>
+        <v>161728418</v>
       </c>
       <c r="J133">
-        <v>7.66</v>
+        <v>3.84</v>
       </c>
       <c r="K133">
-        <v>1.71</v>
+        <v>-2.44</v>
       </c>
       <c r="L133">
-        <v>0.92</v>
+        <v>-1.35</v>
       </c>
       <c r="M133">
-        <v>21.59</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>301357</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D134">
+        <v>53.92</v>
+      </c>
+      <c r="E134">
+        <v>54.83</v>
+      </c>
+      <c r="F134">
+        <v>56.29</v>
+      </c>
+      <c r="G134">
+        <v>52.16</v>
+      </c>
+      <c r="H134">
+        <v>36708</v>
+      </c>
+      <c r="I134">
+        <v>198435616</v>
+      </c>
+      <c r="J134">
+        <v>7.66</v>
+      </c>
+      <c r="K134">
+        <v>1.71</v>
+      </c>
+      <c r="L134">
+        <v>0.92</v>
+      </c>
+      <c r="M134">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>301357</v>
+      </c>
+      <c r="C135" t="s">
+        <v>155</v>
+      </c>
+      <c r="D135">
         <v>54.22</v>
       </c>
-      <c r="E134">
+      <c r="E135">
         <v>56.04</v>
       </c>
-      <c r="F134">
+      <c r="F135">
         <v>57.19</v>
       </c>
-      <c r="G134">
+      <c r="G135">
         <v>54.19</v>
       </c>
-      <c r="H134">
+      <c r="H135">
         <v>36958</v>
       </c>
-      <c r="I134">
+      <c r="I135">
         <v>207430659.52</v>
       </c>
-      <c r="J134">
+      <c r="J135">
         <v>5.47</v>
       </c>
-      <c r="K134">
+      <c r="K135">
         <v>2.21</v>
       </c>
-      <c r="L134">
+      <c r="L135">
         <v>1.21</v>
       </c>
-      <c r="M134">
+      <c r="M135">
         <v>21.74</v>
       </c>
     </row>
